--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982964.7879743421</v>
+        <v>912080.6202096799</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3316524.223708543</v>
+        <v>3316524.223708542</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14659082.61021889</v>
+        <v>14659082.61021888</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6402155.356360355</v>
+        <v>6402155.356360354</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>49.57477998393693</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.57477998393693</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="V12" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="W12" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="X12" t="n">
-        <v>49.57477998393692</v>
+        <v>49.57477998393693</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>49.57477998393693</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.57477998393692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.57477998393693</v>
       </c>
       <c r="E14" t="n">
-        <v>49.57477998393692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>49.57477998393692</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>49.57477998393691</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="X15" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
     </row>
     <row r="16">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.57477998393692</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="R16" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>49.57477998393693</v>
       </c>
       <c r="T16" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="W16" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,49 +1855,49 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>66.78661201071429</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>66.78661201071429</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>58.82564785903713</v>
-      </c>
-      <c r="G17" t="n">
-        <v>66.78661201071431</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66.78661201071431</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>66.78661201071431</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>58.82564785903713</v>
       </c>
       <c r="V18" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>58.82564785903716</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
     </row>
     <row r="19">
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78661201071431</v>
+        <v>34.73699393527881</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.73699393527883</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="C20" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>58.82564785903713</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>58.82564785903715</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>58.82564785903716</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.82564785903712</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>34.73699393527881</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.73699393527883</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="U22" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>129.1376262156463</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>23.22881079200458</v>
+        <v>201.4994221790074</v>
       </c>
       <c r="T23" t="n">
         <v>221.6511261839807</v>
       </c>
       <c r="U23" t="n">
-        <v>251.319250196149</v>
+        <v>1.344460698847934</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="Y23" t="n">
-        <v>330.8418050048305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>83.31688696954056</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>168.4032062873106</v>
       </c>
       <c r="T24" t="n">
-        <v>56.74003264302077</v>
+        <v>199.4529724571856</v>
       </c>
       <c r="U24" t="n">
         <v>225.9297647321559</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>33.13832127889179</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>16.5121766153269</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>161.3312723953813</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>294.49500838295</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>330.8418050048305</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>201.4994221790074</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>92.99558620394258</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.8418050048305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>89.19415482731631</v>
+        <v>56.04655288440961</v>
       </c>
       <c r="S27" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4529724571856</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>163.729879149232</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>55.26484978548445</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>170.6368917385235</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>64.45993822889828</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>330.8418050048305</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>40.08621165210538</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>251.319250196149</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>43.175758186801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1669334611638</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.5300174298866</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>89.19415482731631</v>
       </c>
       <c r="S30" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>199.4529724571856</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9297647321559</v>
       </c>
       <c r="V30" t="n">
-        <v>202.9696807028421</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>143.2658391894172</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>221.4366324471453</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>161.3312723953813</v>
+        <v>13.66019752027648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>330.8418050048305</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>197.752257791249</v>
+        <v>152.5711936178275</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.434007233543555</v>
+        <v>129.1376262156463</v>
       </c>
       <c r="S32" t="n">
         <v>201.4994221790074</v>
@@ -3085,7 +3085,7 @@
         <v>221.6511261839807</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.319250196149</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>138.5722998407276</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>47.06537748745165</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.31688696954056</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>89.19415482731631</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4529724571856</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3312723953813</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>9.387174578384604</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>261.8972416410253</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.319250196149</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>64.14498384977608</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53.39221954110524</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.4529724571856</v>
+        <v>182.3708323849919</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9297647321559</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>86.48135694920938</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>161.3312723953813</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.8306818643177</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.6511261839807</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>274.557994850497</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>274.557994850497</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>20.17955568033703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.19415482731631</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.4529724571856</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>84.49575091513054</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>123.9587625336512</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3312723953813</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>89.67578194449051</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>245.3157567871845</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>197.752257791249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.319250196149</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="W41" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.82755619796844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>25.67293064456297</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>10.84431679897328</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.5300174298866</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S42" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.4529724571856</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9297647321559</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.76555757204045</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>67.85000886879392</v>
       </c>
       <c r="W43" t="n">
-        <v>161.3312723953813</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.48445862034552</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>201.4994221790074</v>
       </c>
       <c r="T44" t="n">
         <v>221.6511261839807</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>10.9286878052369</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.0551929941162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>103.690107284102</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1669334611638</v>
+        <v>66.75647035387063</v>
       </c>
       <c r="H45" t="n">
-        <v>110.5300174298866</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>89.19415482731631</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>235.0968299674218</v>
+        <v>86.4813569492094</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.35503830157244</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="C11" t="n">
-        <v>61.35503830157244</v>
+        <v>54.57824014965671</v>
       </c>
       <c r="D11" t="n">
-        <v>61.35503830157244</v>
+        <v>54.57824014965671</v>
       </c>
       <c r="E11" t="n">
-        <v>61.35503830157244</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="F11" t="n">
-        <v>61.35503830157244</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="G11" t="n">
-        <v>61.35503830157244</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="H11" t="n">
-        <v>61.35503830157244</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="I11" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="J11" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="K11" t="n">
-        <v>57.97232445896352</v>
+        <v>60.22367686513683</v>
       </c>
       <c r="L11" t="n">
-        <v>57.97232445896352</v>
+        <v>88.30054031631965</v>
       </c>
       <c r="M11" t="n">
-        <v>113.6932965117537</v>
+        <v>88.30054031631965</v>
       </c>
       <c r="N11" t="n">
-        <v>169.4142685645438</v>
+        <v>88.30054031631965</v>
       </c>
       <c r="O11" t="n">
-        <v>169.4142685645438</v>
+        <v>144.0215123691098</v>
       </c>
       <c r="P11" t="n">
-        <v>225.135240617334</v>
+        <v>199.7424844219</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="R11" t="n">
-        <v>225.135240617334</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="S11" t="n">
-        <v>225.135240617334</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="T11" t="n">
         <v>168.2829071281082</v>
       </c>
       <c r="U11" t="n">
-        <v>118.2073717907982</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="V11" t="n">
-        <v>118.2073717907982</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="W11" t="n">
-        <v>61.35503830157244</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="X11" t="n">
-        <v>61.35503830157244</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="Y11" t="n">
-        <v>61.35503830157244</v>
+        <v>168.2829071281082</v>
       </c>
     </row>
     <row r="12">
@@ -5096,61 +5096,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="C12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="D12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="E12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="F12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="G12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="H12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="I12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="J12" t="n">
-        <v>4.50270481234668</v>
+        <v>20.28003391922965</v>
       </c>
       <c r="K12" t="n">
-        <v>57.97232445896352</v>
+        <v>20.28003391922965</v>
       </c>
       <c r="L12" t="n">
-        <v>57.97232445896352</v>
+        <v>20.28003391922965</v>
       </c>
       <c r="M12" t="n">
-        <v>113.6932965117537</v>
+        <v>76.00100597201981</v>
       </c>
       <c r="N12" t="n">
-        <v>169.4142685645438</v>
+        <v>113.6932965117536</v>
       </c>
       <c r="O12" t="n">
         <v>169.4142685645438</v>
       </c>
       <c r="P12" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="R12" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="S12" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="T12" t="n">
-        <v>168.2829071281082</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="U12" t="n">
         <v>168.2829071281082</v>
@@ -5159,13 +5159,13 @@
         <v>111.4305736388825</v>
       </c>
       <c r="W12" t="n">
-        <v>54.5782401496567</v>
+        <v>54.57824014965671</v>
       </c>
       <c r="X12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.50270481234668</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="C13" t="n">
-        <v>4.50270481234668</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="D13" t="n">
-        <v>4.50270481234668</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="E13" t="n">
-        <v>4.50270481234668</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="F13" t="n">
-        <v>4.50270481234668</v>
+        <v>54.57824014965671</v>
       </c>
       <c r="G13" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="H13" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="I13" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="J13" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="K13" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="L13" t="n">
-        <v>53.60651666589725</v>
+        <v>53.60651666589724</v>
       </c>
       <c r="M13" t="n">
         <v>109.3274887186874</v>
@@ -5214,22 +5214,22 @@
         <v>165.0484607714776</v>
       </c>
       <c r="O13" t="n">
-        <v>210.1035287160921</v>
+        <v>210.103528716092</v>
       </c>
       <c r="P13" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="Q13" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="R13" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="S13" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="T13" t="n">
         <v>168.2829071281082</v>
-      </c>
-      <c r="S13" t="n">
-        <v>168.2829071281082</v>
-      </c>
-      <c r="T13" t="n">
-        <v>111.4305736388825</v>
       </c>
       <c r="U13" t="n">
         <v>111.4305736388825</v>
@@ -5241,10 +5241,10 @@
         <v>111.4305736388825</v>
       </c>
       <c r="X13" t="n">
-        <v>54.5782401496567</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.50270481234668</v>
+        <v>111.4305736388825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.2829071281082</v>
+        <v>111.4305736388825</v>
       </c>
       <c r="C14" t="n">
         <v>111.4305736388825</v>
       </c>
       <c r="D14" t="n">
+        <v>61.35503830157243</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.35503830157243</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.502704812346679</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.502704812346679</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.502704812346679</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.502704812346679</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20.40401059598708</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76.12498264877723</v>
+      </c>
+      <c r="L14" t="n">
+        <v>131.8459547015674</v>
+      </c>
+      <c r="M14" t="n">
+        <v>187.5669267543576</v>
+      </c>
+      <c r="N14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="O14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="P14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="R14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="S14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="T14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="U14" t="n">
+        <v>225.1352406173339</v>
+      </c>
+      <c r="V14" t="n">
+        <v>168.2829071281082</v>
+      </c>
+      <c r="W14" t="n">
+        <v>168.2829071281082</v>
+      </c>
+      <c r="X14" t="n">
+        <v>168.2829071281082</v>
+      </c>
+      <c r="Y14" t="n">
         <v>111.4305736388825</v>
-      </c>
-      <c r="E14" t="n">
-        <v>61.35503830157244</v>
-      </c>
-      <c r="F14" t="n">
-        <v>61.35503830157244</v>
-      </c>
-      <c r="G14" t="n">
-        <v>61.35503830157244</v>
-      </c>
-      <c r="H14" t="n">
-        <v>61.35503830157244</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.50270481234668</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20.40401059598709</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20.40401059598709</v>
-      </c>
-      <c r="L14" t="n">
-        <v>76.12498264877726</v>
-      </c>
-      <c r="M14" t="n">
-        <v>131.8459547015674</v>
-      </c>
-      <c r="N14" t="n">
-        <v>144.0215123691099</v>
-      </c>
-      <c r="O14" t="n">
-        <v>199.7424844219</v>
-      </c>
-      <c r="P14" t="n">
-        <v>199.7424844219</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="R14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="S14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="T14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="U14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="V14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="W14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="X14" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>225.135240617334</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="D15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="E15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="F15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="G15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="H15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="I15" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="J15" t="n">
         <v>20.28003391922965</v>
@@ -5363,46 +5363,46 @@
         <v>76.00100597201981</v>
       </c>
       <c r="L15" t="n">
-        <v>131.72197802481</v>
+        <v>113.6932965117536</v>
       </c>
       <c r="M15" t="n">
+        <v>113.6932965117536</v>
+      </c>
+      <c r="N15" t="n">
+        <v>113.6932965117536</v>
+      </c>
+      <c r="O15" t="n">
+        <v>113.6932965117536</v>
+      </c>
+      <c r="P15" t="n">
         <v>169.4142685645438</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.4142685645438</v>
-      </c>
-      <c r="O15" t="n">
-        <v>225.135240617334</v>
-      </c>
-      <c r="P15" t="n">
-        <v>225.135240617334</v>
-      </c>
       <c r="Q15" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="R15" t="n">
-        <v>168.2829071281082</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="S15" t="n">
-        <v>168.2829071281082</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="T15" t="n">
-        <v>168.2829071281082</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="U15" t="n">
-        <v>111.4305736388825</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="V15" t="n">
-        <v>111.4305736388825</v>
+        <v>175.0597052800239</v>
       </c>
       <c r="W15" t="n">
-        <v>111.4305736388825</v>
+        <v>118.2073717907982</v>
       </c>
       <c r="X15" t="n">
-        <v>54.5782401496567</v>
+        <v>61.35503830157243</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="C16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="D16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="E16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="F16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="G16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="H16" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="I16" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="J16" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="K16" t="n">
-        <v>4.50270481234668</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="L16" t="n">
-        <v>53.60651666589725</v>
+        <v>53.60651666589722</v>
       </c>
       <c r="M16" t="n">
         <v>109.3274887186874</v>
       </c>
       <c r="N16" t="n">
-        <v>165.0484607714776</v>
+        <v>165.0484607714775</v>
       </c>
       <c r="O16" t="n">
-        <v>210.1035287160921</v>
+        <v>210.103528716092</v>
       </c>
       <c r="P16" t="n">
-        <v>225.135240617334</v>
+        <v>225.1352406173339</v>
       </c>
       <c r="Q16" t="n">
-        <v>225.135240617334</v>
+        <v>168.2829071281082</v>
       </c>
       <c r="R16" t="n">
         <v>168.2829071281082</v>
       </c>
       <c r="S16" t="n">
-        <v>168.2829071281082</v>
+        <v>118.2073717907982</v>
       </c>
       <c r="T16" t="n">
-        <v>111.4305736388825</v>
+        <v>118.2073717907982</v>
       </c>
       <c r="U16" t="n">
-        <v>111.4305736388825</v>
+        <v>118.2073717907982</v>
       </c>
       <c r="V16" t="n">
-        <v>111.4305736388825</v>
+        <v>61.35503830157243</v>
       </c>
       <c r="W16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="X16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
       <c r="Y16" t="n">
-        <v>54.5782401496567</v>
+        <v>4.502704812346679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.6852237896105</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="C17" t="n">
-        <v>199.6852237896105</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="D17" t="n">
-        <v>199.6852237896105</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="E17" t="n">
-        <v>199.6852237896105</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="F17" t="n">
-        <v>140.2653774673507</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="G17" t="n">
-        <v>72.80415321410393</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="H17" t="n">
-        <v>72.80415321410393</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I17" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J17" t="n">
         <v>21.24423474449755</v>
       </c>
       <c r="K17" t="n">
-        <v>87.36298063510472</v>
+        <v>21.24423474449755</v>
       </c>
       <c r="L17" t="n">
-        <v>109.5162000662089</v>
+        <v>87.36298063510469</v>
       </c>
       <c r="M17" t="n">
-        <v>109.5162000662089</v>
+        <v>153.4817265257118</v>
       </c>
       <c r="N17" t="n">
-        <v>109.5162000662089</v>
+        <v>219.600472416319</v>
       </c>
       <c r="O17" t="n">
-        <v>175.6349459568161</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="P17" t="n">
-        <v>241.7536918474233</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="Q17" t="n">
         <v>267.1464480428572</v>
       </c>
       <c r="R17" t="n">
-        <v>199.6852237896105</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="S17" t="n">
-        <v>199.6852237896105</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="T17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="U17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="V17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="W17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="X17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="Y17" t="n">
-        <v>199.6852237896105</v>
+        <v>140.2653774673507</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="C18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="D18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="E18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="F18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="G18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="H18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I18" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J18" t="n">
-        <v>5.342928960857145</v>
+        <v>21.12025806774012</v>
       </c>
       <c r="K18" t="n">
-        <v>71.46167485146431</v>
+        <v>21.12025806774012</v>
       </c>
       <c r="L18" t="n">
-        <v>134.9089562616429</v>
+        <v>87.23900395834727</v>
       </c>
       <c r="M18" t="n">
-        <v>201.0277021522501</v>
+        <v>87.23900395834727</v>
       </c>
       <c r="N18" t="n">
-        <v>201.0277021522501</v>
+        <v>153.3577498489544</v>
       </c>
       <c r="O18" t="n">
-        <v>201.0277021522501</v>
+        <v>201.02770215225</v>
       </c>
       <c r="P18" t="n">
-        <v>267.1464480428572</v>
+        <v>201.02770215225</v>
       </c>
       <c r="Q18" t="n">
         <v>267.1464480428572</v>
       </c>
       <c r="R18" t="n">
-        <v>199.6852237896105</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="S18" t="n">
-        <v>199.6852237896105</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="T18" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="U18" t="n">
-        <v>132.2239995363637</v>
+        <v>207.7266017205974</v>
       </c>
       <c r="V18" t="n">
-        <v>64.76277528311691</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="W18" t="n">
-        <v>64.76277528311691</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="X18" t="n">
-        <v>5.342928960857145</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.342928960857145</v>
+        <v>72.80415321410391</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="C19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="D19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="E19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="F19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="G19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="H19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="K19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="L19" t="n">
-        <v>54.4467408144077</v>
+        <v>54.44674081440769</v>
       </c>
       <c r="M19" t="n">
         <v>116.6089486460317</v>
       </c>
       <c r="N19" t="n">
-        <v>182.7276945366389</v>
+        <v>182.7276945366388</v>
       </c>
       <c r="O19" t="n">
-        <v>227.7827624812534</v>
+        <v>227.7827624812533</v>
       </c>
       <c r="P19" t="n">
-        <v>242.8144743824953</v>
+        <v>242.8144743824952</v>
       </c>
       <c r="Q19" t="n">
-        <v>175.3532501292485</v>
+        <v>207.7266017205974</v>
       </c>
       <c r="R19" t="n">
-        <v>107.8920258760017</v>
+        <v>207.7266017205974</v>
       </c>
       <c r="S19" t="n">
-        <v>72.80415321410393</v>
+        <v>207.7266017205974</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342928960857145</v>
+        <v>207.7266017205974</v>
       </c>
       <c r="U19" t="n">
-        <v>5.342928960857145</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="V19" t="n">
-        <v>5.342928960857145</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="W19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="X19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.80415321410393</v>
+        <v>132.2239995363636</v>
       </c>
       <c r="C20" t="n">
-        <v>5.342928960857145</v>
+        <v>132.2239995363636</v>
       </c>
       <c r="D20" t="n">
-        <v>5.342928960857145</v>
+        <v>132.2239995363636</v>
       </c>
       <c r="E20" t="n">
-        <v>5.342928960857145</v>
+        <v>132.2239995363636</v>
       </c>
       <c r="F20" t="n">
-        <v>5.342928960857145</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="G20" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="H20" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I20" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J20" t="n">
-        <v>5.342928960857145</v>
+        <v>21.24423474449755</v>
       </c>
       <c r="K20" t="n">
-        <v>71.46167485146431</v>
+        <v>21.24423474449755</v>
       </c>
       <c r="L20" t="n">
-        <v>71.46167485146431</v>
+        <v>21.24423474449755</v>
       </c>
       <c r="M20" t="n">
-        <v>134.9089562616429</v>
+        <v>43.39745417560178</v>
       </c>
       <c r="N20" t="n">
-        <v>201.0277021522501</v>
+        <v>109.5162000662089</v>
       </c>
       <c r="O20" t="n">
-        <v>267.1464480428572</v>
+        <v>175.6349459568161</v>
       </c>
       <c r="P20" t="n">
-        <v>267.1464480428572</v>
+        <v>241.7536918474232</v>
       </c>
       <c r="Q20" t="n">
         <v>267.1464480428572</v>
       </c>
       <c r="R20" t="n">
-        <v>199.6852237896105</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="S20" t="n">
-        <v>199.6852237896105</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="T20" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="U20" t="n">
-        <v>72.80415321410393</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="V20" t="n">
-        <v>72.80415321410393</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="W20" t="n">
-        <v>72.80415321410393</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="X20" t="n">
-        <v>72.80415321410393</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.80415321410393</v>
+        <v>199.6852237896104</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.76277528311691</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="C21" t="n">
-        <v>5.342928960857145</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="D21" t="n">
-        <v>5.342928960857145</v>
+        <v>199.6852237896104</v>
       </c>
       <c r="E21" t="n">
-        <v>5.342928960857145</v>
+        <v>132.2239995363636</v>
       </c>
       <c r="F21" t="n">
-        <v>5.342928960857145</v>
+        <v>64.76277528311687</v>
       </c>
       <c r="G21" t="n">
-        <v>5.342928960857145</v>
+        <v>64.76277528311687</v>
       </c>
       <c r="H21" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I21" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J21" t="n">
         <v>21.12025806774012</v>
       </c>
       <c r="K21" t="n">
-        <v>68.79021037103576</v>
+        <v>21.12025806774012</v>
       </c>
       <c r="L21" t="n">
+        <v>21.12025806774012</v>
+      </c>
+      <c r="M21" t="n">
+        <v>21.12025806774012</v>
+      </c>
+      <c r="N21" t="n">
+        <v>87.23900395834727</v>
+      </c>
+      <c r="O21" t="n">
         <v>134.9089562616429</v>
       </c>
-      <c r="M21" t="n">
-        <v>134.9089562616429</v>
-      </c>
-      <c r="N21" t="n">
-        <v>134.9089562616429</v>
-      </c>
-      <c r="O21" t="n">
-        <v>201.0277021522501</v>
-      </c>
       <c r="P21" t="n">
-        <v>267.1464480428572</v>
+        <v>201.02770215225</v>
       </c>
       <c r="Q21" t="n">
         <v>267.1464480428572</v>
       </c>
       <c r="R21" t="n">
-        <v>199.6852237896105</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="S21" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="T21" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="U21" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="V21" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="W21" t="n">
-        <v>132.2239995363637</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="X21" t="n">
-        <v>64.76277528311691</v>
+        <v>267.1464480428572</v>
       </c>
       <c r="Y21" t="n">
-        <v>64.76277528311691</v>
+        <v>267.1464480428572</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="C22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="D22" t="n">
-        <v>5.342928960857145</v>
+        <v>140.2653774673507</v>
       </c>
       <c r="E22" t="n">
-        <v>5.342928960857145</v>
+        <v>72.80415321410391</v>
       </c>
       <c r="F22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="G22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="H22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="I22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="J22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="K22" t="n">
-        <v>5.342928960857145</v>
+        <v>5.342928960857144</v>
       </c>
       <c r="L22" t="n">
-        <v>54.4467408144077</v>
+        <v>54.44674081440769</v>
       </c>
       <c r="M22" t="n">
         <v>116.6089486460317</v>
       </c>
       <c r="N22" t="n">
-        <v>182.7276945366389</v>
+        <v>182.7276945366388</v>
       </c>
       <c r="O22" t="n">
-        <v>227.7827624812534</v>
+        <v>227.7827624812533</v>
       </c>
       <c r="P22" t="n">
-        <v>242.8144743824953</v>
+        <v>242.8144743824952</v>
       </c>
       <c r="Q22" t="n">
+        <v>242.8144743824952</v>
+      </c>
+      <c r="R22" t="n">
+        <v>242.8144743824952</v>
+      </c>
+      <c r="S22" t="n">
+        <v>242.8144743824952</v>
+      </c>
+      <c r="T22" t="n">
         <v>175.3532501292485</v>
       </c>
-      <c r="R22" t="n">
-        <v>107.8920258760017</v>
-      </c>
-      <c r="S22" t="n">
-        <v>72.80415321410393</v>
-      </c>
-      <c r="T22" t="n">
-        <v>72.80415321410393</v>
-      </c>
       <c r="U22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="V22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="W22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="X22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.342928960857145</v>
+        <v>175.3532501292485</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="C23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="D23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="E23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="F23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="G23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
       <c r="H23" t="n">
-        <v>26.46734440038644</v>
+        <v>226.2170997450824</v>
       </c>
       <c r="I23" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J23" t="n">
-        <v>42.36865018402685</v>
+        <v>42.36865018402708</v>
       </c>
       <c r="K23" t="n">
-        <v>186.9453898130913</v>
+        <v>186.945389813091</v>
       </c>
       <c r="L23" t="n">
-        <v>418.5822472149968</v>
+        <v>418.5822472149966</v>
       </c>
       <c r="M23" t="n">
-        <v>692.9294281918098</v>
+        <v>692.9294281918096</v>
       </c>
       <c r="N23" t="n">
-        <v>957.0838358321618</v>
+        <v>957.0838358321615</v>
       </c>
       <c r="O23" t="n">
         <v>1161.329714599182</v>
@@ -6013,28 +6013,28 @@
         <v>1323.367220019322</v>
       </c>
       <c r="R23" t="n">
-        <v>1192.925173336851</v>
+        <v>1323.367220019322</v>
       </c>
       <c r="S23" t="n">
-        <v>1169.461728092402</v>
+        <v>1119.832450141536</v>
       </c>
       <c r="T23" t="n">
-        <v>945.5717016439363</v>
+        <v>895.9424236930711</v>
       </c>
       <c r="U23" t="n">
-        <v>691.7138731629777</v>
+        <v>894.5843825831237</v>
       </c>
       <c r="V23" t="n">
-        <v>360.6509858194071</v>
+        <v>894.5843825831237</v>
       </c>
       <c r="W23" t="n">
-        <v>360.6509858194071</v>
+        <v>894.5843825831237</v>
       </c>
       <c r="X23" t="n">
-        <v>360.6509858194071</v>
+        <v>560.400741164103</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.46734440038644</v>
+        <v>560.400741164103</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>334.6392090670932</v>
+        <v>110.625816086791</v>
       </c>
       <c r="C24" t="n">
-        <v>334.6392090670932</v>
+        <v>110.625816086791</v>
       </c>
       <c r="D24" t="n">
-        <v>185.7047994058419</v>
+        <v>110.625816086791</v>
       </c>
       <c r="E24" t="n">
-        <v>26.46734440038644</v>
+        <v>110.625816086791</v>
       </c>
       <c r="F24" t="n">
-        <v>26.46734440038644</v>
+        <v>110.625816086791</v>
       </c>
       <c r="G24" t="n">
-        <v>26.46734440038644</v>
+        <v>110.625816086791</v>
       </c>
       <c r="H24" t="n">
-        <v>26.46734440038644</v>
+        <v>110.625816086791</v>
       </c>
       <c r="I24" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J24" t="n">
-        <v>42.24467350726941</v>
+        <v>42.2446735072694</v>
       </c>
       <c r="K24" t="n">
-        <v>195.8314850417494</v>
+        <v>110.0325966301999</v>
       </c>
       <c r="L24" t="n">
-        <v>195.8314850417494</v>
+        <v>377.9534148149026</v>
       </c>
       <c r="M24" t="n">
-        <v>523.3648719965315</v>
+        <v>705.4868017696847</v>
       </c>
       <c r="N24" t="n">
-        <v>850.8982589513137</v>
+        <v>1033.020188724467</v>
       </c>
       <c r="O24" t="n">
-        <v>1141.245290246168</v>
+        <v>1323.367220019322</v>
       </c>
       <c r="P24" t="n">
-        <v>1231.657314384385</v>
+        <v>1323.367220019322</v>
       </c>
       <c r="Q24" t="n">
         <v>1323.367220019322</v>
@@ -6095,25 +6095,25 @@
         <v>1233.272114133144</v>
       </c>
       <c r="S24" t="n">
-        <v>1063.167865358083</v>
+        <v>1063.167865358082</v>
       </c>
       <c r="T24" t="n">
-        <v>1005.854701072203</v>
+        <v>861.7002164114301</v>
       </c>
       <c r="U24" t="n">
-        <v>777.6428175043686</v>
+        <v>633.4883328435958</v>
       </c>
       <c r="V24" t="n">
-        <v>542.490709272626</v>
+        <v>398.3362246118531</v>
       </c>
       <c r="W24" t="n">
-        <v>542.490709272626</v>
+        <v>144.0988678836515</v>
       </c>
       <c r="X24" t="n">
-        <v>334.6392090670932</v>
+        <v>110.625816086791</v>
       </c>
       <c r="Y24" t="n">
-        <v>334.6392090670932</v>
+        <v>110.625816086791</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
       <c r="C25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
       <c r="D25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
       <c r="E25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
       <c r="F25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
       <c r="G25" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H25" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I25" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J25" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K25" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="L25" t="n">
-        <v>75.57115625393699</v>
+        <v>75.57115625393698</v>
       </c>
       <c r="M25" t="n">
         <v>137.733364085561</v>
       </c>
       <c r="N25" t="n">
-        <v>203.8521099761682</v>
+        <v>203.8521099761681</v>
       </c>
       <c r="O25" t="n">
-        <v>248.9071779207827</v>
+        <v>248.9071779207826</v>
       </c>
       <c r="P25" t="n">
-        <v>263.9388898220246</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="Q25" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="R25" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="S25" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="T25" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="U25" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="V25" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="W25" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="X25" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220245</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.46734440038644</v>
+        <v>43.14631067849442</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>694.8346272384277</v>
+      </c>
+      <c r="C26" t="n">
+        <v>694.8346272384277</v>
+      </c>
+      <c r="D26" t="n">
+        <v>694.8346272384277</v>
+      </c>
+      <c r="E26" t="n">
+        <v>694.8346272384277</v>
+      </c>
+      <c r="F26" t="n">
         <v>360.6509858194071</v>
       </c>
-      <c r="C26" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="D26" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="F26" t="n">
-        <v>26.46734440038644</v>
-      </c>
       <c r="G26" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H26" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I26" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J26" t="n">
         <v>42.36865018402685</v>
@@ -6235,10 +6235,10 @@
         <v>418.5822472149964</v>
       </c>
       <c r="M26" t="n">
-        <v>692.9294281918098</v>
+        <v>692.9294281918094</v>
       </c>
       <c r="N26" t="n">
-        <v>957.0838358321618</v>
+        <v>957.0838358321614</v>
       </c>
       <c r="O26" t="n">
         <v>1161.329714599182</v>
@@ -6253,25 +6253,25 @@
         <v>1323.367220019322</v>
       </c>
       <c r="S26" t="n">
-        <v>1323.367220019322</v>
+        <v>1119.832450141536</v>
       </c>
       <c r="T26" t="n">
-        <v>1323.367220019322</v>
+        <v>1025.897514581998</v>
       </c>
       <c r="U26" t="n">
-        <v>1323.367220019322</v>
+        <v>1025.897514581998</v>
       </c>
       <c r="V26" t="n">
-        <v>992.3043326757512</v>
+        <v>694.8346272384277</v>
       </c>
       <c r="W26" t="n">
-        <v>992.3043326757512</v>
+        <v>694.8346272384277</v>
       </c>
       <c r="X26" t="n">
-        <v>992.3043326757512</v>
+        <v>694.8346272384277</v>
       </c>
       <c r="Y26" t="n">
-        <v>658.1206912567304</v>
+        <v>694.8346272384277</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.46734440038644</v>
+        <v>655.6267963213352</v>
       </c>
       <c r="C27" t="n">
-        <v>26.46734440038644</v>
+        <v>481.1737670402082</v>
       </c>
       <c r="D27" t="n">
-        <v>26.46734440038644</v>
+        <v>332.2393573789569</v>
       </c>
       <c r="E27" t="n">
-        <v>26.46734440038644</v>
+        <v>173.0019023735015</v>
       </c>
       <c r="F27" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="G27" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H27" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I27" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J27" t="n">
-        <v>42.24467350726941</v>
+        <v>42.2446735072694</v>
       </c>
       <c r="K27" t="n">
         <v>195.8314850417494</v>
       </c>
       <c r="L27" t="n">
-        <v>463.7523032264521</v>
+        <v>195.8314850417494</v>
       </c>
       <c r="M27" t="n">
-        <v>791.2856901812343</v>
+        <v>523.3648719965315</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.341197636162</v>
+        <v>816.9941663413069</v>
       </c>
       <c r="O27" t="n">
         <v>1107.341197636162</v>
@@ -6329,28 +6329,28 @@
         <v>1323.367220019322</v>
       </c>
       <c r="R27" t="n">
-        <v>1233.272114133144</v>
+        <v>1266.7545403381</v>
       </c>
       <c r="S27" t="n">
-        <v>1063.167865358083</v>
+        <v>1266.7545403381</v>
       </c>
       <c r="T27" t="n">
-        <v>861.7002164114303</v>
+        <v>1266.7545403381</v>
       </c>
       <c r="U27" t="n">
-        <v>696.3165000990748</v>
+        <v>1266.7545403381</v>
       </c>
       <c r="V27" t="n">
-        <v>696.3165000990748</v>
+        <v>1031.602432106357</v>
       </c>
       <c r="W27" t="n">
-        <v>442.0791433708732</v>
+        <v>1031.602432106357</v>
       </c>
       <c r="X27" t="n">
-        <v>234.2276431653403</v>
+        <v>1031.602432106357</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.46734440038644</v>
+        <v>823.8421333414033</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.46734440038644</v>
+        <v>82.29042499178487</v>
       </c>
       <c r="C28" t="n">
-        <v>26.46734440038644</v>
+        <v>82.29042499178487</v>
       </c>
       <c r="D28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="E28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="F28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="G28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K28" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="L28" t="n">
         <v>75.57115625393699</v>
@@ -6408,28 +6408,28 @@
         <v>263.9388898220246</v>
       </c>
       <c r="R28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="S28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="T28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="U28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="V28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="W28" t="n">
-        <v>91.57839311644531</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="X28" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>735.3257501193423</v>
+      </c>
+      <c r="C29" t="n">
+        <v>735.3257501193423</v>
+      </c>
+      <c r="D29" t="n">
+        <v>401.1421087003216</v>
+      </c>
+      <c r="E29" t="n">
+        <v>401.1421087003216</v>
+      </c>
+      <c r="F29" t="n">
+        <v>401.1421087003216</v>
+      </c>
+      <c r="G29" t="n">
         <v>360.6509858194071</v>
       </c>
-      <c r="C29" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="D29" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="E29" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="F29" t="n">
-        <v>26.46734440038644</v>
-      </c>
-      <c r="G29" t="n">
-        <v>26.46734440038644</v>
-      </c>
       <c r="H29" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I29" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J29" t="n">
-        <v>42.36865018402685</v>
+        <v>42.36865018402682</v>
       </c>
       <c r="K29" t="n">
         <v>186.9453898130908</v>
       </c>
       <c r="L29" t="n">
-        <v>418.5822472149968</v>
+        <v>418.5822472149964</v>
       </c>
       <c r="M29" t="n">
-        <v>692.9294281918098</v>
+        <v>692.9294281918094</v>
       </c>
       <c r="N29" t="n">
-        <v>957.0838358321618</v>
+        <v>957.0838358321614</v>
       </c>
       <c r="O29" t="n">
         <v>1161.329714599182</v>
@@ -6499,16 +6499,16 @@
         <v>1069.509391538363</v>
       </c>
       <c r="V29" t="n">
-        <v>738.4465041947925</v>
+        <v>1069.509391538363</v>
       </c>
       <c r="W29" t="n">
-        <v>404.2628627757718</v>
+        <v>735.3257501193423</v>
       </c>
       <c r="X29" t="n">
-        <v>404.2628627757718</v>
+        <v>735.3257501193423</v>
       </c>
       <c r="Y29" t="n">
-        <v>360.6509858194071</v>
+        <v>735.3257501193423</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.46734440038644</v>
+        <v>451.1193139755038</v>
       </c>
       <c r="C30" t="n">
-        <v>26.46734440038644</v>
+        <v>276.6662846943768</v>
       </c>
       <c r="D30" t="n">
-        <v>26.46734440038644</v>
+        <v>276.6662846943768</v>
       </c>
       <c r="E30" t="n">
-        <v>26.46734440038644</v>
+        <v>276.6662846943768</v>
       </c>
       <c r="F30" t="n">
-        <v>26.46734440038644</v>
+        <v>276.6662846943768</v>
       </c>
       <c r="G30" t="n">
-        <v>26.46734440038644</v>
+        <v>138.1138266527971</v>
       </c>
       <c r="H30" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I30" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J30" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K30" t="n">
-        <v>161.9273924317426</v>
+        <v>180.0541559348664</v>
       </c>
       <c r="L30" t="n">
-        <v>161.9273924317426</v>
+        <v>447.9749741195691</v>
       </c>
       <c r="M30" t="n">
-        <v>489.4607793865248</v>
+        <v>775.5083610743512</v>
       </c>
       <c r="N30" t="n">
-        <v>816.9941663413069</v>
+        <v>1103.041748029133</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.341197636162</v>
+        <v>1323.367220019322</v>
       </c>
       <c r="P30" t="n">
         <v>1323.367220019322</v>
@@ -6569,25 +6569,25 @@
         <v>1233.272114133144</v>
       </c>
       <c r="S30" t="n">
-        <v>1063.167865358083</v>
+        <v>1233.272114133144</v>
       </c>
       <c r="T30" t="n">
-        <v>861.7002164114303</v>
+        <v>1031.804465186491</v>
       </c>
       <c r="U30" t="n">
-        <v>861.7002164114303</v>
+        <v>803.5925816186571</v>
       </c>
       <c r="V30" t="n">
-        <v>656.6803369136101</v>
+        <v>803.5925816186571</v>
       </c>
       <c r="W30" t="n">
-        <v>402.4429801854084</v>
+        <v>803.5925816186571</v>
       </c>
       <c r="X30" t="n">
-        <v>402.4429801854084</v>
+        <v>658.8796127404578</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.6826814204545</v>
+        <v>451.1193139755038</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="C31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="D31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="E31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="F31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="G31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="L31" t="n">
         <v>75.57115625393699</v>
@@ -6642,31 +6642,31 @@
         <v>263.9388898220246</v>
       </c>
       <c r="Q31" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="R31" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="S31" t="n">
-        <v>189.4282256078423</v>
+        <v>40.26552371379702</v>
       </c>
       <c r="T31" t="n">
-        <v>189.4282256078423</v>
+        <v>40.26552371379702</v>
       </c>
       <c r="U31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="V31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="W31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="X31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="C32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="D32" t="n">
-        <v>226.2170997450824</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="E32" t="n">
-        <v>226.2170997450824</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="F32" t="n">
-        <v>226.2170997450824</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="G32" t="n">
-        <v>226.2170997450824</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="H32" t="n">
-        <v>226.2170997450824</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="I32" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J32" t="n">
-        <v>42.36865018402682</v>
+        <v>42.36865018402685</v>
       </c>
       <c r="K32" t="n">
         <v>186.9453898130908</v>
@@ -6709,10 +6709,10 @@
         <v>418.5822472149964</v>
       </c>
       <c r="M32" t="n">
-        <v>692.9294281918096</v>
+        <v>692.9294281918094</v>
       </c>
       <c r="N32" t="n">
-        <v>957.0838358321616</v>
+        <v>957.0838358321614</v>
       </c>
       <c r="O32" t="n">
         <v>1161.329714599182</v>
@@ -6724,28 +6724,28 @@
         <v>1323.367220019322</v>
       </c>
       <c r="R32" t="n">
-        <v>1318.888424833924</v>
+        <v>1192.925173336851</v>
       </c>
       <c r="S32" t="n">
-        <v>1115.353654956139</v>
+        <v>989.3904034590653</v>
       </c>
       <c r="T32" t="n">
-        <v>891.4636285076738</v>
+        <v>765.5003770106</v>
       </c>
       <c r="U32" t="n">
-        <v>891.4636285076738</v>
+        <v>511.6425485296414</v>
       </c>
       <c r="V32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="W32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="X32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
       <c r="Y32" t="n">
-        <v>560.4007411641031</v>
+        <v>180.5796611860708</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.4393644415254</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="C33" t="n">
-        <v>26.46734440038644</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="D33" t="n">
-        <v>26.46734440038644</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="E33" t="n">
-        <v>26.46734440038644</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="F33" t="n">
-        <v>26.46734440038644</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="G33" t="n">
-        <v>26.46734440038644</v>
+        <v>158.1666014276513</v>
       </c>
       <c r="H33" t="n">
-        <v>26.46734440038644</v>
+        <v>110.625816086791</v>
       </c>
       <c r="I33" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J33" t="n">
-        <v>42.24467350726941</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K33" t="n">
-        <v>195.8314850417494</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="L33" t="n">
-        <v>463.7523032264521</v>
+        <v>70.21748679680638</v>
       </c>
       <c r="M33" t="n">
-        <v>791.2856901812343</v>
+        <v>397.7508737515885</v>
       </c>
       <c r="N33" t="n">
-        <v>941.3102830895307</v>
+        <v>725.2842607063706</v>
       </c>
       <c r="O33" t="n">
-        <v>1231.657314384385</v>
+        <v>1015.631292001225</v>
       </c>
       <c r="P33" t="n">
         <v>1231.657314384385</v>
@@ -6806,25 +6806,25 @@
         <v>1233.272114133144</v>
       </c>
       <c r="S33" t="n">
-        <v>1233.272114133144</v>
+        <v>1063.167865358082</v>
       </c>
       <c r="T33" t="n">
-        <v>1031.804465186492</v>
+        <v>1063.167865358082</v>
       </c>
       <c r="U33" t="n">
-        <v>1031.804465186492</v>
+        <v>1063.167865358082</v>
       </c>
       <c r="V33" t="n">
-        <v>796.6523569547489</v>
+        <v>828.0157571263396</v>
       </c>
       <c r="W33" t="n">
-        <v>542.4150002265474</v>
+        <v>573.778400398138</v>
       </c>
       <c r="X33" t="n">
-        <v>542.4150002265474</v>
+        <v>365.9269001926052</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.6547014615934</v>
+        <v>158.1666014276513</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="C34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="D34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="E34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="F34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="G34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="H34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="I34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="J34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="K34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="L34" t="n">
         <v>75.57115625393699</v>
@@ -6879,31 +6879,31 @@
         <v>263.9388898220246</v>
       </c>
       <c r="Q34" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="R34" t="n">
-        <v>189.4282256078423</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="S34" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="T34" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="U34" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="V34" t="n">
-        <v>26.46734440038644</v>
+        <v>263.9388898220246</v>
       </c>
       <c r="W34" t="n">
-        <v>26.46734440038644</v>
+        <v>254.4568952984038</v>
       </c>
       <c r="X34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.46734440038644</v>
+        <v>26.46734440038643</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.5073079123077</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="C35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="D35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="E35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="F35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="G35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="H35" t="n">
-        <v>21.96463958803976</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="I35" t="n">
         <v>21.96463958803976</v>
       </c>
       <c r="J35" t="n">
-        <v>21.96463958803976</v>
+        <v>37.86594537168017</v>
       </c>
       <c r="K35" t="n">
-        <v>100.9896644952839</v>
+        <v>182.4426850007441</v>
       </c>
       <c r="L35" t="n">
-        <v>332.6265218971894</v>
+        <v>414.0795424026497</v>
       </c>
       <c r="M35" t="n">
-        <v>604.4389367991814</v>
+        <v>672.0400663414962</v>
       </c>
       <c r="N35" t="n">
-        <v>868.5933444395333</v>
+        <v>936.1944739818482</v>
       </c>
       <c r="O35" t="n">
-        <v>1072.839223206554</v>
+        <v>936.1944739818482</v>
       </c>
       <c r="P35" t="n">
         <v>1072.839223206554</v>
@@ -6961,28 +6961,28 @@
         <v>1098.231979401988</v>
       </c>
       <c r="R35" t="n">
-        <v>967.7899327195169</v>
+        <v>967.7899327195166</v>
       </c>
       <c r="S35" t="n">
-        <v>764.2551628417316</v>
+        <v>764.2551628417314</v>
       </c>
       <c r="T35" t="n">
-        <v>540.3651363932663</v>
+        <v>540.3651363932661</v>
       </c>
       <c r="U35" t="n">
-        <v>286.5073079123077</v>
+        <v>286.5073079123075</v>
       </c>
       <c r="V35" t="n">
-        <v>286.5073079123077</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="W35" t="n">
-        <v>286.5073079123077</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="X35" t="n">
-        <v>286.5073079123077</v>
+        <v>221.7143949327357</v>
       </c>
       <c r="Y35" t="n">
-        <v>286.5073079123077</v>
+        <v>221.7143949327357</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.96463958803976</v>
+        <v>196.4176688691668</v>
       </c>
       <c r="C36" t="n">
         <v>21.96463958803976</v>
@@ -7016,25 +7016,25 @@
         <v>21.96463958803976</v>
       </c>
       <c r="J36" t="n">
-        <v>21.96463958803976</v>
+        <v>37.74196869492273</v>
       </c>
       <c r="K36" t="n">
-        <v>21.96463958803976</v>
+        <v>191.3287802294027</v>
       </c>
       <c r="L36" t="n">
-        <v>289.8854577727425</v>
+        <v>459.2495984141054</v>
       </c>
       <c r="M36" t="n">
-        <v>518.6836364818996</v>
+        <v>731.0620133160974</v>
       </c>
       <c r="N36" t="n">
-        <v>790.4960513838917</v>
+        <v>1002.874428218089</v>
       </c>
       <c r="O36" t="n">
-        <v>790.4960513838917</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="P36" t="n">
-        <v>1006.522073767052</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="Q36" t="n">
         <v>1098.231979401988</v>
@@ -7043,25 +7043,25 @@
         <v>1098.231979401988</v>
       </c>
       <c r="S36" t="n">
-        <v>928.1277306269267</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="T36" t="n">
-        <v>726.6600816802745</v>
+        <v>914.0190173969454</v>
       </c>
       <c r="U36" t="n">
-        <v>726.6600816802745</v>
+        <v>685.8071338291111</v>
       </c>
       <c r="V36" t="n">
-        <v>491.5079734485318</v>
+        <v>450.6550255973684</v>
       </c>
       <c r="W36" t="n">
-        <v>491.5079734485318</v>
+        <v>196.4176688691668</v>
       </c>
       <c r="X36" t="n">
-        <v>283.656473242999</v>
+        <v>196.4176688691668</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.89617447804505</v>
+        <v>196.4176688691668</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="C37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="D37" t="n">
-        <v>21.96463958803976</v>
+        <v>109.3195455973422</v>
       </c>
       <c r="E37" t="n">
-        <v>21.96463958803976</v>
+        <v>109.3195455973422</v>
       </c>
       <c r="F37" t="n">
-        <v>21.96463958803976</v>
+        <v>109.3195455973422</v>
       </c>
       <c r="G37" t="n">
-        <v>21.96463958803976</v>
+        <v>109.3195455973422</v>
       </c>
       <c r="H37" t="n">
         <v>21.96463958803976</v>
@@ -7116,31 +7116,31 @@
         <v>259.4361850096779</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.9255207954956</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="R37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="S37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="T37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="U37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="V37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="W37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="X37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.96463958803976</v>
+        <v>820.9006714721928</v>
       </c>
       <c r="C38" t="n">
-        <v>21.96463958803976</v>
+        <v>820.9006714721928</v>
       </c>
       <c r="D38" t="n">
-        <v>21.96463958803976</v>
+        <v>820.9006714721928</v>
       </c>
       <c r="E38" t="n">
-        <v>21.96463958803976</v>
+        <v>543.5693635423979</v>
       </c>
       <c r="F38" t="n">
-        <v>21.96463958803976</v>
+        <v>266.238055612603</v>
       </c>
       <c r="G38" t="n">
         <v>21.96463958803976</v>
@@ -7177,19 +7177,19 @@
         <v>37.86594537168017</v>
       </c>
       <c r="K38" t="n">
-        <v>182.4426850007441</v>
+        <v>37.86594537168017</v>
       </c>
       <c r="L38" t="n">
-        <v>195.9817726724839</v>
+        <v>195.9817726724837</v>
       </c>
       <c r="M38" t="n">
-        <v>467.7941875744759</v>
+        <v>467.7941875744756</v>
       </c>
       <c r="N38" t="n">
-        <v>731.9485952148278</v>
+        <v>731.9485952148276</v>
       </c>
       <c r="O38" t="n">
-        <v>936.1944739818484</v>
+        <v>936.1944739818482</v>
       </c>
       <c r="P38" t="n">
         <v>1072.839223206554</v>
@@ -7204,22 +7204,22 @@
         <v>1098.231979401988</v>
       </c>
       <c r="T38" t="n">
-        <v>874.3419529535227</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="U38" t="n">
-        <v>874.3419529535227</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="V38" t="n">
-        <v>597.0106450237276</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="W38" t="n">
-        <v>597.0106450237276</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="X38" t="n">
-        <v>319.6793370939327</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="Y38" t="n">
-        <v>299.2959475178347</v>
+        <v>1098.231979401988</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.96463958803976</v>
+        <v>181.2020945934952</v>
       </c>
       <c r="C39" t="n">
-        <v>21.96463958803976</v>
+        <v>181.2020945934952</v>
       </c>
       <c r="D39" t="n">
-        <v>21.96463958803976</v>
+        <v>181.2020945934952</v>
       </c>
       <c r="E39" t="n">
         <v>21.96463958803976</v>
@@ -7259,46 +7259,46 @@
         <v>21.96463958803976</v>
       </c>
       <c r="L39" t="n">
-        <v>66.76871231285202</v>
+        <v>21.96463958803976</v>
       </c>
       <c r="M39" t="n">
-        <v>338.581127214844</v>
+        <v>246.8712215799076</v>
       </c>
       <c r="N39" t="n">
-        <v>610.393542116836</v>
+        <v>518.6836364818995</v>
       </c>
       <c r="O39" t="n">
-        <v>882.2059570188279</v>
+        <v>790.4960513838914</v>
       </c>
       <c r="P39" t="n">
-        <v>1098.231979401988</v>
+        <v>1006.522073767051</v>
       </c>
       <c r="Q39" t="n">
         <v>1098.231979401988</v>
       </c>
       <c r="R39" t="n">
-        <v>1008.13687351581</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="S39" t="n">
-        <v>838.0326247407486</v>
+        <v>1098.231979401988</v>
       </c>
       <c r="T39" t="n">
-        <v>636.5649757940964</v>
+        <v>896.7643304553355</v>
       </c>
       <c r="U39" t="n">
-        <v>636.5649757940964</v>
+        <v>896.7643304553355</v>
       </c>
       <c r="V39" t="n">
-        <v>401.4128675623537</v>
+        <v>811.4150871067188</v>
       </c>
       <c r="W39" t="n">
-        <v>147.1755108341521</v>
+        <v>557.1777303785173</v>
       </c>
       <c r="X39" t="n">
-        <v>21.96463958803976</v>
+        <v>557.1777303785173</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.96463958803976</v>
+        <v>349.4174316135633</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="C40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="D40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="E40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="F40" t="n">
         <v>21.96463958803976</v>
@@ -7353,31 +7353,31 @@
         <v>259.4361850096779</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.9255207954956</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="R40" t="n">
-        <v>184.9255207954956</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="S40" t="n">
-        <v>21.96463958803976</v>
+        <v>259.4361850096779</v>
       </c>
       <c r="T40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="U40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="V40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="W40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="X40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.96463958803976</v>
+        <v>168.8545870859501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.5965879499993</v>
+        <v>268.9181091639581</v>
       </c>
       <c r="C41" t="n">
-        <v>487.5965879499993</v>
+        <v>268.9181091639581</v>
       </c>
       <c r="D41" t="n">
-        <v>487.5965879499993</v>
+        <v>268.9181091639581</v>
       </c>
       <c r="E41" t="n">
-        <v>487.5965879499993</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="F41" t="n">
-        <v>487.5965879499993</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="G41" t="n">
-        <v>487.5965879499993</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H41" t="n">
-        <v>220.8741707842252</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I41" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J41" t="n">
-        <v>37.02572122316971</v>
+        <v>37.0257212231697</v>
       </c>
       <c r="K41" t="n">
         <v>181.6024608522337</v>
       </c>
       <c r="L41" t="n">
-        <v>181.6024608522337</v>
+        <v>413.2393182541392</v>
       </c>
       <c r="M41" t="n">
-        <v>428.5227467251298</v>
+        <v>674.6539593183142</v>
       </c>
       <c r="N41" t="n">
-        <v>689.9373877893048</v>
+        <v>936.0686003824891</v>
       </c>
       <c r="O41" t="n">
-        <v>894.1832665563254</v>
+        <v>1030.82801578103</v>
       </c>
       <c r="P41" t="n">
-        <v>1030.828015781031</v>
+        <v>1030.82801578103</v>
       </c>
       <c r="Q41" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="R41" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="S41" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="T41" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="U41" t="n">
-        <v>1056.220771976465</v>
+        <v>802.3629434955059</v>
       </c>
       <c r="V41" t="n">
-        <v>1056.220771976465</v>
+        <v>535.640526329732</v>
       </c>
       <c r="W41" t="n">
-        <v>789.4983548106909</v>
+        <v>535.640526329732</v>
       </c>
       <c r="X41" t="n">
-        <v>522.7759376449169</v>
+        <v>535.640526329732</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.5965879499993</v>
+        <v>535.640526329732</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>449.4967660230088</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="C42" t="n">
-        <v>449.4967660230088</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="D42" t="n">
-        <v>449.4967660230088</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="E42" t="n">
-        <v>290.2593110175533</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="F42" t="n">
-        <v>143.7247530444382</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="G42" t="n">
-        <v>132.77089769194</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H42" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I42" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J42" t="n">
-        <v>36.90174454641227</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="K42" t="n">
-        <v>190.4885560808922</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="L42" t="n">
-        <v>451.9031971450673</v>
+        <v>271.9768487839397</v>
       </c>
       <c r="M42" t="n">
-        <v>451.9031971450673</v>
+        <v>533.3914898481146</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0702028941936</v>
+        <v>794.8061309122895</v>
       </c>
       <c r="O42" t="n">
-        <v>748.4848439583686</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="P42" t="n">
-        <v>964.5108663415286</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="Q42" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="R42" t="n">
-        <v>1056.220771976465</v>
+        <v>966.1256660902864</v>
       </c>
       <c r="S42" t="n">
-        <v>886.1165232014037</v>
+        <v>966.1256660902864</v>
       </c>
       <c r="T42" t="n">
-        <v>684.6488742547515</v>
+        <v>764.6580171436342</v>
       </c>
       <c r="U42" t="n">
-        <v>684.6488742547515</v>
+        <v>536.4461335757999</v>
       </c>
       <c r="V42" t="n">
-        <v>449.4967660230088</v>
+        <v>301.2940253440572</v>
       </c>
       <c r="W42" t="n">
-        <v>449.4967660230088</v>
+        <v>47.05666861585553</v>
       </c>
       <c r="X42" t="n">
-        <v>449.4967660230088</v>
+        <v>47.05666861585553</v>
       </c>
       <c r="Y42" t="n">
-        <v>449.4967660230088</v>
+        <v>47.05666861585553</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.1244154395293</v>
+        <v>190.0605983674362</v>
       </c>
       <c r="C43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="D43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="E43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="F43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="G43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="K43" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="L43" t="n">
-        <v>70.22822729307985</v>
+        <v>70.22822729307984</v>
       </c>
       <c r="M43" t="n">
-        <v>132.3904351247039</v>
+        <v>132.3904351247038</v>
       </c>
       <c r="N43" t="n">
         <v>198.509181015311</v>
@@ -7590,31 +7590,31 @@
         <v>258.5959608611674</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.0852966469852</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="R43" t="n">
-        <v>184.0852966469852</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="S43" t="n">
-        <v>184.0852966469852</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0852966469852</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="U43" t="n">
-        <v>184.0852966469852</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0852966469852</v>
+        <v>190.0605983674362</v>
       </c>
       <c r="W43" t="n">
-        <v>21.1244154395293</v>
+        <v>190.0605983674362</v>
       </c>
       <c r="X43" t="n">
-        <v>21.1244154395293</v>
+        <v>190.0605983674362</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.1244154395293</v>
+        <v>190.0605983674362</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287.8468326053033</v>
+        <v>554.569249771077</v>
       </c>
       <c r="C44" t="n">
-        <v>287.8468326053033</v>
+        <v>554.569249771077</v>
       </c>
       <c r="D44" t="n">
-        <v>287.8468326053033</v>
+        <v>287.8468326053032</v>
       </c>
       <c r="E44" t="n">
-        <v>287.8468326053033</v>
+        <v>287.8468326053032</v>
       </c>
       <c r="F44" t="n">
-        <v>287.8468326053033</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="G44" t="n">
-        <v>287.8468326053033</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H44" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I44" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J44" t="n">
-        <v>37.02572122316971</v>
+        <v>37.0257212231697</v>
       </c>
       <c r="K44" t="n">
-        <v>181.6024608522337</v>
+        <v>37.0257212231697</v>
       </c>
       <c r="L44" t="n">
-        <v>181.6024608522337</v>
+        <v>268.6625786250752</v>
       </c>
       <c r="M44" t="n">
-        <v>443.0171019164087</v>
+        <v>453.9155029205634</v>
       </c>
       <c r="N44" t="n">
-        <v>704.4317429805837</v>
+        <v>715.3301439847384</v>
       </c>
       <c r="O44" t="n">
-        <v>894.1832665563254</v>
+        <v>919.576022751759</v>
       </c>
       <c r="P44" t="n">
-        <v>1030.828015781031</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="Q44" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="R44" t="n">
-        <v>1056.220771976465</v>
+        <v>981.9940460973276</v>
       </c>
       <c r="S44" t="n">
-        <v>1056.220771976465</v>
+        <v>778.4592762195423</v>
       </c>
       <c r="T44" t="n">
-        <v>832.3307455279996</v>
+        <v>554.569249771077</v>
       </c>
       <c r="U44" t="n">
-        <v>832.3307455279996</v>
+        <v>554.569249771077</v>
       </c>
       <c r="V44" t="n">
-        <v>832.3307455279996</v>
+        <v>554.569249771077</v>
       </c>
       <c r="W44" t="n">
-        <v>821.2916669368512</v>
+        <v>554.569249771077</v>
       </c>
       <c r="X44" t="n">
-        <v>821.2916669368512</v>
+        <v>554.569249771077</v>
       </c>
       <c r="Y44" t="n">
-        <v>554.5692497710772</v>
+        <v>554.569249771077</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>550.5138671198001</v>
+        <v>396.7270582414589</v>
       </c>
       <c r="C45" t="n">
-        <v>376.0608378386731</v>
+        <v>396.7270582414589</v>
       </c>
       <c r="D45" t="n">
-        <v>376.0608378386731</v>
+        <v>247.7926485802076</v>
       </c>
       <c r="E45" t="n">
-        <v>271.3233557335196</v>
+        <v>88.55519357475214</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3233557335196</v>
+        <v>88.55519357475214</v>
       </c>
       <c r="G45" t="n">
-        <v>132.77089769194</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H45" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I45" t="n">
-        <v>21.1244154395293</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J45" t="n">
-        <v>36.90174454641227</v>
+        <v>36.90174454641226</v>
       </c>
       <c r="K45" t="n">
         <v>190.4885560808922</v>
       </c>
       <c r="L45" t="n">
-        <v>451.9031971450673</v>
+        <v>451.9031971450672</v>
       </c>
       <c r="M45" t="n">
-        <v>451.9031971450673</v>
+        <v>713.3178382092422</v>
       </c>
       <c r="N45" t="n">
-        <v>713.3178382092424</v>
+        <v>748.4848439583682</v>
       </c>
       <c r="O45" t="n">
-        <v>964.5108663415286</v>
+        <v>748.4848439583682</v>
       </c>
       <c r="P45" t="n">
-        <v>964.5108663415286</v>
+        <v>964.5108663415282</v>
       </c>
       <c r="Q45" t="n">
-        <v>1056.220771976465</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="R45" t="n">
-        <v>966.1256660902868</v>
+        <v>1056.220771976464</v>
       </c>
       <c r="S45" t="n">
-        <v>966.1256660902868</v>
+        <v>886.1165232014032</v>
       </c>
       <c r="T45" t="n">
-        <v>966.1256660902868</v>
+        <v>886.1165232014032</v>
       </c>
       <c r="U45" t="n">
-        <v>966.1256660902868</v>
+        <v>886.1165232014032</v>
       </c>
       <c r="V45" t="n">
-        <v>966.1256660902868</v>
+        <v>650.9644149696605</v>
       </c>
       <c r="W45" t="n">
-        <v>966.1256660902868</v>
+        <v>396.7270582414589</v>
       </c>
       <c r="X45" t="n">
-        <v>758.274165884754</v>
+        <v>396.7270582414589</v>
       </c>
       <c r="Y45" t="n">
-        <v>550.5138671198001</v>
+        <v>396.7270582414589</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="C46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="D46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="E46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="F46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="G46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="H46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="I46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="J46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="K46" t="n">
-        <v>818.7492265548267</v>
+        <v>21.12441543952929</v>
       </c>
       <c r="L46" t="n">
-        <v>867.8530384083773</v>
+        <v>70.22822729307984</v>
       </c>
       <c r="M46" t="n">
-        <v>930.0152462400013</v>
+        <v>132.3904351247038</v>
       </c>
       <c r="N46" t="n">
-        <v>996.1339921306084</v>
+        <v>198.509181015311</v>
       </c>
       <c r="O46" t="n">
-        <v>1041.189060075223</v>
+        <v>243.5642489599255</v>
       </c>
       <c r="P46" t="n">
-        <v>1056.220771976465</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="Q46" t="n">
-        <v>1056.220771976465</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="R46" t="n">
-        <v>1056.220771976465</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="S46" t="n">
-        <v>1056.220771976465</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="T46" t="n">
-        <v>1056.220771976465</v>
+        <v>258.5959608611674</v>
       </c>
       <c r="U46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="V46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="W46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.7492265548267</v>
+        <v>171.241054851865</v>
       </c>
     </row>
   </sheetData>
@@ -8692,25 +8692,25 @@
         <v>153.0346901380936</v>
       </c>
       <c r="K11" t="n">
-        <v>232.118018649501</v>
+        <v>234.39211198907</v>
       </c>
       <c r="L11" t="n">
-        <v>183.684590912162</v>
+        <v>212.0450590446699</v>
       </c>
       <c r="M11" t="n">
-        <v>228.6789790241226</v>
+        <v>172.395168869789</v>
       </c>
       <c r="N11" t="n">
-        <v>226.8081005861641</v>
+        <v>170.5242904318307</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4912128112094</v>
+        <v>230.7750229655429</v>
       </c>
       <c r="P11" t="n">
         <v>240.0575191089418</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.6657419776481</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>110.1543392728503</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.3367603581714</v>
+        <v>109.3270435434069</v>
       </c>
       <c r="L12" t="n">
         <v>100.2132562280019</v>
@@ -8780,10 +8780,10 @@
         <v>153.675561325283</v>
       </c>
       <c r="N12" t="n">
-        <v>141.6990443969946</v>
+        <v>123.488254989867</v>
       </c>
       <c r="O12" t="n">
-        <v>100.5824896859672</v>
+        <v>156.8662998403007</v>
       </c>
       <c r="P12" t="n">
         <v>156.5384753769373</v>
@@ -8853,7 +8853,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415545</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
         <v>172.0033621429468</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1083018347365</v>
+        <v>234.39211198907</v>
       </c>
       <c r="L14" t="n">
         <v>239.9684010664955</v>
@@ -8938,16 +8938,16 @@
         <v>228.6789790241225</v>
       </c>
       <c r="N14" t="n">
-        <v>182.8228335303584</v>
+        <v>208.4720822126149</v>
       </c>
       <c r="O14" t="n">
-        <v>230.7750229655429</v>
+        <v>174.4912128112094</v>
       </c>
       <c r="P14" t="n">
         <v>183.7737089546083</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>186.6657419776482</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,22 +9011,22 @@
         <v>165.6108536977404</v>
       </c>
       <c r="L15" t="n">
-        <v>156.4970663823354</v>
+        <v>138.2862769752078</v>
       </c>
       <c r="M15" t="n">
-        <v>135.4647719181554</v>
+        <v>97.39175117094948</v>
       </c>
       <c r="N15" t="n">
-        <v>85.41523424266111</v>
+        <v>85.41523424266113</v>
       </c>
       <c r="O15" t="n">
-        <v>156.8662998403007</v>
+        <v>100.5824896859672</v>
       </c>
       <c r="P15" t="n">
-        <v>100.2546652226038</v>
+        <v>156.5384753769373</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.4410194177316</v>
+        <v>173.7248295720651</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>244.8949138454508</v>
+        <v>178.1083018347365</v>
       </c>
       <c r="L17" t="n">
-        <v>206.0615802365097</v>
+        <v>250.4712029228763</v>
       </c>
       <c r="M17" t="n">
-        <v>172.395168869789</v>
+        <v>239.1817808805033</v>
       </c>
       <c r="N17" t="n">
-        <v>170.5242904318307</v>
+        <v>237.3109024425449</v>
       </c>
       <c r="O17" t="n">
-        <v>241.2778248219237</v>
+        <v>222.5174508178136</v>
       </c>
       <c r="P17" t="n">
-        <v>250.5603209653226</v>
+        <v>183.7737089546083</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>186.6657419776482</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>110.1543392728503</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>176.1136555541212</v>
+        <v>109.3270435434069</v>
       </c>
       <c r="L18" t="n">
-        <v>164.3014192685863</v>
+        <v>166.9998682387161</v>
       </c>
       <c r="M18" t="n">
-        <v>164.1783631816638</v>
+        <v>97.39175117094948</v>
       </c>
       <c r="N18" t="n">
-        <v>85.41523424266111</v>
+        <v>152.2018462533754</v>
       </c>
       <c r="O18" t="n">
-        <v>100.5824896859672</v>
+        <v>148.733956658993</v>
       </c>
       <c r="P18" t="n">
-        <v>167.0412772333181</v>
+        <v>100.2546652226038</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.4410194177316</v>
+        <v>184.2276314284459</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>153.0346901380936</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>244.8949138454508</v>
+        <v>178.1083018347365</v>
       </c>
       <c r="L20" t="n">
         <v>183.684590912162</v>
       </c>
       <c r="M20" t="n">
-        <v>236.4833319103735</v>
+        <v>194.7721581941368</v>
       </c>
       <c r="N20" t="n">
         <v>237.3109024425449</v>
@@ -9418,10 +9418,10 @@
         <v>241.2778248219237</v>
       </c>
       <c r="P20" t="n">
-        <v>183.7737089546083</v>
+        <v>250.5603209653226</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.6657419776481</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>157.4785105164328</v>
+        <v>109.3270435434069</v>
       </c>
       <c r="L21" t="n">
-        <v>166.9998682387161</v>
+        <v>100.2132562280019</v>
       </c>
       <c r="M21" t="n">
         <v>97.39175117094948</v>
       </c>
       <c r="N21" t="n">
-        <v>85.41523424266111</v>
+        <v>152.2018462533754</v>
       </c>
       <c r="O21" t="n">
-        <v>167.3691016966815</v>
+        <v>148.733956658993</v>
       </c>
       <c r="P21" t="n">
         <v>167.0412772333181</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.4410194177316</v>
+        <v>184.2276314284459</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711652</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>177.7996931625286</v>
       </c>
       <c r="L24" t="n">
-        <v>100.2132562280019</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>428.2335561757799</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>191.5799421298937</v>
+        <v>100.2546652226038</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>117.4410194177316</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>100.2132562280019</v>
       </c>
       <c r="M27" t="n">
         <v>428.2335561757799</v>
       </c>
       <c r="N27" t="n">
-        <v>404.6632215708706</v>
+        <v>382.0104810555656</v>
       </c>
       <c r="O27" t="n">
-        <v>100.5824896859672</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504509</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10193,10 +10193,10 @@
         <v>110.1543392728503</v>
       </c>
       <c r="K30" t="n">
-        <v>246.1553748882112</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>100.2132562280019</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>428.2335561757799</v>
@@ -10205,10 +10205,10 @@
         <v>416.2570392474915</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>323.1334714942382</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>100.2546652226038</v>
       </c>
       <c r="Q30" t="n">
         <v>117.4410194177316</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>110.1543392728503</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>109.3270435434069</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>144.4053192546887</v>
       </c>
       <c r="M33" t="n">
         <v>428.2335561757799</v>
       </c>
       <c r="N33" t="n">
-        <v>236.9552270793242</v>
+        <v>416.2570392474915</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>100.2546652226038</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>153.0346901380936</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>257.9315593168013</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9531637202861</v>
+        <v>432.9613546666037</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>174.4912128112094</v>
       </c>
       <c r="P35" t="n">
-        <v>183.7737089546083</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>110.1543392728503</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>109.3270435434069</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>328.5010225943405</v>
+        <v>371.9497460214464</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9732290931581</v>
+        <v>359.973229093158</v>
       </c>
       <c r="O36" t="n">
-        <v>100.5824896859672</v>
+        <v>196.9032484575817</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>100.2546652226038</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>117.4410194177316</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>178.1083018347365</v>
       </c>
       <c r="L38" t="n">
-        <v>197.3604370452325</v>
+        <v>343.3975477816605</v>
       </c>
       <c r="M38" t="n">
-        <v>446.9531637202861</v>
+        <v>446.9531637202859</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,22 +10907,22 @@
         <v>109.3270435434069</v>
       </c>
       <c r="L39" t="n">
-        <v>145.4698953439738</v>
+        <v>100.2132562280019</v>
       </c>
       <c r="M39" t="n">
-        <v>371.9497460214465</v>
+        <v>324.5701168193008</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9732290931581</v>
+        <v>359.973229093158</v>
       </c>
       <c r="O39" t="n">
-        <v>375.1404845364642</v>
+        <v>375.1404845364641</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.4410194177316</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>183.684590912162</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>421.8095990444315</v>
+        <v>436.4503618639051</v>
       </c>
       <c r="N41" t="n">
-        <v>434.5794834259469</v>
+        <v>434.5794834259468</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>270.2077940218572</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>183.7737089546083</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>110.1543392728503</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>109.3270435434069</v>
       </c>
       <c r="L42" t="n">
-        <v>364.2684492221181</v>
+        <v>353.5995525354871</v>
       </c>
       <c r="M42" t="n">
-        <v>97.39175117094948</v>
+        <v>361.4469441650656</v>
       </c>
       <c r="N42" t="n">
-        <v>120.9374622720816</v>
+        <v>349.4704272367773</v>
       </c>
       <c r="O42" t="n">
-        <v>364.6376826800834</v>
+        <v>364.6376826800833</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>100.2546652226038</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>117.4410194177316</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>178.1083018347365</v>
       </c>
       <c r="L44" t="n">
-        <v>183.684590912162</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>436.4503618639052</v>
+        <v>359.5193348248276</v>
       </c>
       <c r="N44" t="n">
-        <v>434.5794834259469</v>
+        <v>434.5794834259468</v>
       </c>
       <c r="O44" t="n">
-        <v>366.1594184432716</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>186.6657419776481</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>364.2684492221181</v>
+        <v>364.268449222118</v>
       </c>
       <c r="M45" t="n">
-        <v>97.39175117094948</v>
+        <v>361.4469441650656</v>
       </c>
       <c r="N45" t="n">
-        <v>349.4704272367774</v>
+        <v>120.9374622720813</v>
       </c>
       <c r="O45" t="n">
-        <v>354.312821132721</v>
+        <v>100.5824896859672</v>
       </c>
       <c r="P45" t="n">
-        <v>100.2546652226038</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>326.4500315091471</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>308.9890816166741</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>332.3555900883248</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>336.0948424773964</v>
       </c>
       <c r="I11" t="n">
-        <v>141.4684476369155</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>129.1376262156463</v>
+        <v>72.85381606131287</v>
       </c>
       <c r="S11" t="n">
         <v>201.4994221790074</v>
       </c>
       <c r="T11" t="n">
-        <v>165.3673160296472</v>
+        <v>221.6511261839807</v>
       </c>
       <c r="U11" t="n">
-        <v>201.7444702122121</v>
+        <v>251.319250196149</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>292.9571585630795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23390,10 +23390,10 @@
         <v>168.4032062873106</v>
       </c>
       <c r="T12" t="n">
-        <v>143.1691623028521</v>
+        <v>199.4529724571856</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9297647321559</v>
+        <v>169.6459545778225</v>
       </c>
       <c r="V12" t="n">
         <v>176.5167769950918</v>
@@ -23402,7 +23402,7 @@
         <v>195.4111730065861</v>
       </c>
       <c r="X12" t="n">
-        <v>156.1982052195406</v>
+        <v>156.1982052195405</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>89.13723786859777</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8429375144937</v>
+        <v>118.2681575305568</v>
       </c>
       <c r="H13" t="n">
         <v>160.9109459310959</v>
@@ -23442,7 +23442,7 @@
         <v>82.89262174834484</v>
       </c>
       <c r="K13" t="n">
-        <v>5.069721227036116</v>
+        <v>5.069721227036119</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>73.76555757204045</v>
       </c>
       <c r="R13" t="n">
-        <v>114.35308158419</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S13" t="n">
         <v>221.4366324471453</v>
       </c>
       <c r="T13" t="n">
-        <v>171.0292368497337</v>
+        <v>171.0292368497338</v>
       </c>
       <c r="U13" t="n">
-        <v>286.31095434682</v>
+        <v>230.0271441924866</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>169.4258452347036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>169.0098733681579</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>326.4500315091471</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>308.9890816166741</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>305.108261636746</v>
       </c>
       <c r="E14" t="n">
-        <v>332.3555900883248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>350.592235587378</v>
       </c>
       <c r="G14" t="n">
         <v>414.9727036190412</v>
@@ -23515,7 +23515,7 @@
         <v>336.0948424773964</v>
       </c>
       <c r="I14" t="n">
-        <v>141.4684476369155</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.319250196149</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>271.4684483158014</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>329.9541285017201</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>97.87028558070183</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.91034467298281</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S15" t="n">
         <v>168.4032062873106</v>
@@ -23630,19 +23630,19 @@
         <v>199.4529724571856</v>
       </c>
       <c r="U15" t="n">
-        <v>169.6459545778224</v>
+        <v>225.9297647321559</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>183.2258071654884</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>195.4111730065861</v>
       </c>
       <c r="X15" t="n">
         <v>149.489175049144</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>149.3988856229709</v>
       </c>
     </row>
     <row r="16">
@@ -23670,7 +23670,7 @@
         <v>167.8429375144937</v>
       </c>
       <c r="H16" t="n">
-        <v>111.336165947159</v>
+        <v>160.9109459310959</v>
       </c>
       <c r="I16" t="n">
         <v>150.9984529287462</v>
@@ -23679,7 +23679,7 @@
         <v>82.89262174834484</v>
       </c>
       <c r="K16" t="n">
-        <v>5.069721227036116</v>
+        <v>5.069721227036119</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.76555757204045</v>
+        <v>17.48174741770696</v>
       </c>
       <c r="R16" t="n">
-        <v>114.35308158419</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S16" t="n">
-        <v>221.4366324471453</v>
+        <v>171.8618524632083</v>
       </c>
       <c r="T16" t="n">
-        <v>171.0292368497337</v>
+        <v>227.3130470040672</v>
       </c>
       <c r="U16" t="n">
         <v>286.31095434682</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>195.8538331694945</v>
       </c>
       <c r="W16" t="n">
         <v>230.2391881822575</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>315.9472296527663</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>348.0503978826743</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>348.1860916083269</v>
@@ -23752,7 +23752,7 @@
         <v>336.0948424773964</v>
       </c>
       <c r="I17" t="n">
-        <v>130.9656457805347</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.35101420493204</v>
+        <v>62.35101420493206</v>
       </c>
       <c r="S17" t="n">
         <v>201.4994221790074</v>
       </c>
       <c r="T17" t="n">
-        <v>221.6511261839807</v>
+        <v>162.8254783249435</v>
       </c>
       <c r="U17" t="n">
         <v>251.319250196149</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>99.74657163915305</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.407542816602</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S18" t="n">
         <v>168.4032062873106</v>
       </c>
       <c r="T18" t="n">
-        <v>132.6663604464713</v>
+        <v>199.4529724571856</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9297647321559</v>
+        <v>167.1041168731188</v>
       </c>
       <c r="V18" t="n">
         <v>166.013975138711</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>146.9473373444403</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>138.8960837665901</v>
       </c>
     </row>
     <row r="19">
@@ -23916,7 +23916,7 @@
         <v>82.89262174834484</v>
       </c>
       <c r="K19" t="n">
-        <v>5.069721227036116</v>
+        <v>5.069721227036119</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.978945561326142</v>
+        <v>39.02856363676164</v>
       </c>
       <c r="R19" t="n">
-        <v>103.8502797278092</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S19" t="n">
-        <v>186.6996385118664</v>
+        <v>221.4366324471453</v>
       </c>
       <c r="T19" t="n">
-        <v>160.526434993353</v>
+        <v>227.3130470040672</v>
       </c>
       <c r="U19" t="n">
-        <v>286.31095434682</v>
+        <v>219.5243423361057</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>185.3510313131137</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>219.7363863258767</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>315.9472296527663</v>
       </c>
       <c r="C20" t="n">
-        <v>298.4862797602933</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>348.0503978826743</v>
       </c>
       <c r="G20" t="n">
-        <v>414.9727036190412</v>
+        <v>348.1860916083269</v>
       </c>
       <c r="H20" t="n">
         <v>336.0948424773964</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>62.35101420493204</v>
+        <v>129.1376262156463</v>
       </c>
       <c r="S20" t="n">
         <v>201.4994221790074</v>
       </c>
       <c r="T20" t="n">
-        <v>154.8645141732663</v>
+        <v>221.6511261839807</v>
       </c>
       <c r="U20" t="n">
-        <v>192.4936023371118</v>
+        <v>251.319250196149</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>260.9656464594206</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>113.8828511292786</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>80.65845355392446</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>90.85846844468665</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>78.28260038266959</v>
       </c>
       <c r="G21" t="n">
         <v>137.1669334611638</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5300174298866</v>
+        <v>51.70436957084945</v>
       </c>
       <c r="I21" t="n">
         <v>83.31688696954056</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.407542816602</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S21" t="n">
-        <v>101.6165942765963</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T21" t="n">
         <v>199.4529724571856</v>
@@ -24113,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>138.9863731927632</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>113.8784790829336</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>79.64735063585488</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>78.63443601221695</v>
       </c>
       <c r="G22" t="n">
         <v>167.8429375144937</v>
@@ -24153,7 +24153,7 @@
         <v>82.89262174834484</v>
       </c>
       <c r="K22" t="n">
-        <v>5.069721227036116</v>
+        <v>5.069721227036119</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.978945561326142</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R22" t="n">
-        <v>103.8502797278092</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S22" t="n">
-        <v>186.6996385118664</v>
+        <v>221.4366324471453</v>
       </c>
       <c r="T22" t="n">
-        <v>227.3130470040672</v>
+        <v>160.526434993353</v>
       </c>
       <c r="U22" t="n">
-        <v>219.5243423361057</v>
+        <v>286.31095434682</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24223,10 +24223,10 @@
         <v>414.9727036190412</v>
       </c>
       <c r="H23" t="n">
-        <v>336.0948424773964</v>
+        <v>5.25303747256595</v>
       </c>
       <c r="I23" t="n">
-        <v>197.752257791249</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>129.1376262156463</v>
       </c>
       <c r="S23" t="n">
-        <v>178.2706113870028</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>249.9747894973011</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>38.88929567363863</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.39613365122312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,10 +24290,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24305,7 +24305,7 @@
         <v>110.5300174298866</v>
       </c>
       <c r="I24" t="n">
-        <v>83.31688696954056</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>142.7129398141648</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>172.6346639245857</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8429375144937</v>
+        <v>151.3307608991668</v>
       </c>
       <c r="H25" t="n">
         <v>160.9109459310959</v>
@@ -24390,7 +24390,7 @@
         <v>82.89262174834484</v>
       </c>
       <c r="K25" t="n">
-        <v>5.069721227036116</v>
+        <v>5.069721227036119</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R25" t="n">
         <v>170.6368917385235</v>
@@ -24417,7 +24417,7 @@
         <v>221.4366324471453</v>
       </c>
       <c r="T25" t="n">
-        <v>65.98177460868592</v>
+        <v>227.3130470040672</v>
       </c>
       <c r="U25" t="n">
         <v>286.31095434682</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.23883328053057</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>34.43108676617709</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>76.03424073688103</v>
       </c>
       <c r="G26" t="n">
-        <v>414.9727036190412</v>
+        <v>84.13089861421082</v>
       </c>
       <c r="H26" t="n">
         <v>336.0948424773964</v>
@@ -24493,10 +24493,10 @@
         <v>129.1376262156463</v>
       </c>
       <c r="S26" t="n">
-        <v>201.4994221790074</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.6511261839807</v>
+        <v>128.6555399800381</v>
       </c>
       <c r="U26" t="n">
         <v>251.319250196149</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.39613365122312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.1669334611638</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.1476019429067</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4529724571856</v>
       </c>
       <c r="U27" t="n">
-        <v>62.19988558292397</v>
+        <v>225.9297647321559</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>93.35062323272791</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>73.76555757204045</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S28" t="n">
         <v>221.4366324471453</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>161.2497171601389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>34.43108676617709</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>23.84123661585255</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.9727036190412</v>
+        <v>374.8864919669359</v>
       </c>
       <c r="H29" t="n">
-        <v>336.0948424773964</v>
+        <v>5.25303747256595</v>
       </c>
       <c r="I29" t="n">
         <v>197.752257791249</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>18.39916371258255</v>
+        <v>18.39916371258261</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.0621804692526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1669334611638</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.5300174298866</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>83.31688696954056</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9297647321559</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>29.83090644658321</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>62.50714601406023</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R31" t="n">
         <v>170.6368917385235</v>
       </c>
       <c r="S31" t="n">
-        <v>221.4366324471453</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>227.3130470040672</v>
       </c>
       <c r="U31" t="n">
-        <v>124.9796819514387</v>
+        <v>272.6507568265436</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>23.84123661585249</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24937,7 +24937,7 @@
         <v>336.0948424773964</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>45.18106417342148</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>124.7036189821028</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.319250196149</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>34.13619914758814</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25013,10 +25013,10 @@
         <v>137.1669334611638</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5300174298866</v>
+        <v>63.46463994243492</v>
       </c>
       <c r="I33" t="n">
-        <v>83.31688696954056</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.4529724571856</v>
       </c>
       <c r="U33" t="n">
         <v>225.9297647321559</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R34" t="n">
         <v>170.6368917385235</v>
       </c>
       <c r="S34" t="n">
-        <v>60.10536005176394</v>
+        <v>221.4366324471453</v>
       </c>
       <c r="T34" t="n">
         <v>227.3130470040672</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>277.1358237582064</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>103.3756501299823</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>336.0948424773964</v>
       </c>
       <c r="I35" t="n">
-        <v>197.752257791249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>263.6072746203588</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.1409641087621</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25283,25 +25283,25 @@
         <v>89.19415482731631</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>17.08214007219374</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9297647321559</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>167.8429375144937</v>
       </c>
       <c r="H37" t="n">
-        <v>160.9109459310959</v>
+        <v>74.42958898188652</v>
       </c>
       <c r="I37" t="n">
         <v>150.9984529287462</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R37" t="n">
-        <v>9.305619343142155</v>
+        <v>170.6368917385235</v>
       </c>
       <c r="S37" t="n">
         <v>221.4366324471453</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108.1758468129836</v>
+        <v>108.1758468129837</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>107.3723752217649</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>132.3180508912145</v>
       </c>
       <c r="G38" t="n">
-        <v>414.9727036190412</v>
+        <v>173.1420217547236</v>
       </c>
       <c r="H38" t="n">
         <v>336.0948424773964</v>
@@ -25444,22 +25444,22 @@
         <v>201.4994221790074</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.6511261839807</v>
       </c>
       <c r="U38" t="n">
         <v>251.319250196149</v>
       </c>
       <c r="V38" t="n">
-        <v>53.19426361963792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>95.17310582797205</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.0583829757165</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>225.9297647321559</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>148.3048362342947</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>81.81422266982629</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.8429375144937</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R40" t="n">
         <v>170.6368917385235</v>
       </c>
       <c r="S40" t="n">
-        <v>60.10536005176394</v>
+        <v>221.4366324471453</v>
       </c>
       <c r="T40" t="n">
-        <v>227.3130470040672</v>
+        <v>137.6372650595767</v>
       </c>
       <c r="U40" t="n">
         <v>286.31095434682</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>118.6786486693645</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>136.6146132850773</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,10 +25645,10 @@
         <v>414.9727036190412</v>
       </c>
       <c r="H41" t="n">
-        <v>72.03964948328013</v>
+        <v>336.0948424773964</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>197.752257791249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>221.6511261839807</v>
       </c>
       <c r="U41" t="n">
-        <v>251.319250196149</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>63.69706547601879</v>
       </c>
       <c r="W41" t="n">
-        <v>85.18577572329679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>105.6759076843528</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>351.4103824580852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>140.8602530053044</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>126.3226166621906</v>
+        <v>137.1669334611638</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.5300174298866</v>
       </c>
       <c r="I42" t="n">
         <v>83.31688696954056</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>89.19415482731631</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.4032062873106</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9297647321559</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.76555757204045</v>
       </c>
       <c r="R43" t="n">
         <v>170.6368917385235</v>
@@ -25845,10 +25845,10 @@
         <v>286.31095434682</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>184.2876344550341</v>
       </c>
       <c r="W43" t="n">
-        <v>125.1917259412097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>118.6786486693643</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>90.62784862656684</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>142.8208527475953</v>
       </c>
       <c r="G44" t="n">
         <v>414.9727036190412</v>
       </c>
       <c r="H44" t="n">
-        <v>72.03964948328013</v>
+        <v>336.0948424773964</v>
       </c>
       <c r="I44" t="n">
         <v>197.752257791249</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>129.1376262156463</v>
+        <v>55.65316759530083</v>
       </c>
       <c r="S44" t="n">
-        <v>201.4994221790074</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>338.3122809121761</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.1827456619374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>53.95497317129899</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>70.41046310729321</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.5300174298866</v>
       </c>
       <c r="I45" t="n">
         <v>83.31688696954056</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>89.19415482731631</v>
       </c>
       <c r="S45" t="n">
-        <v>168.4032062873106</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.4529724571856</v>
@@ -26003,16 +26003,16 @@
         <v>225.9297647321559</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>227.3130470040672</v>
       </c>
       <c r="U46" t="n">
-        <v>51.21412437939821</v>
+        <v>199.8295973976107</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340357.458823155</v>
+        <v>340357.4588231549</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340357.458823155</v>
+        <v>340357.4588231551</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469443.8609681278</v>
+        <v>469443.8609681276</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
         <v>184683.0547587317</v>
       </c>
       <c r="F2" t="n">
-        <v>184683.0547587318</v>
+        <v>184683.0547587317</v>
       </c>
       <c r="G2" t="n">
         <v>188578.2812745314</v>
@@ -26334,7 +26334,7 @@
         <v>188578.2812745313</v>
       </c>
       <c r="I2" t="n">
-        <v>279217.0112828662</v>
+        <v>279217.0112828664</v>
       </c>
       <c r="J2" t="n">
         <v>279217.0112828664</v>
@@ -26343,19 +26343,19 @@
         <v>279217.0112828664</v>
       </c>
       <c r="L2" t="n">
-        <v>279217.0112828662</v>
+        <v>279217.0112828664</v>
       </c>
       <c r="M2" t="n">
-        <v>259897.2129688347</v>
+        <v>259897.2129688346</v>
       </c>
       <c r="N2" t="n">
-        <v>259897.2129688347</v>
+        <v>259897.2129688346</v>
       </c>
       <c r="O2" t="n">
+        <v>256292.0552326914</v>
+      </c>
+      <c r="P2" t="n">
         <v>256292.0552326913</v>
-      </c>
-      <c r="P2" t="n">
-        <v>256292.0552326915</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82761.22524634679</v>
+        <v>82761.22524634676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2878.660446806125</v>
+        <v>2878.660446806134</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>71876.9568714699</v>
+        <v>71876.95687146988</v>
       </c>
       <c r="F4" t="n">
         <v>71876.95687146988</v>
@@ -26459,7 +26459,7 @@
         <v>107299.8921336661</v>
       </c>
       <c r="P4" t="n">
-        <v>107299.8921336661</v>
+        <v>107299.892133666</v>
       </c>
     </row>
     <row r="5">
@@ -26490,16 +26490,16 @@
         <v>5850.317320294183</v>
       </c>
       <c r="I5" t="n">
-        <v>21904.87305433645</v>
+        <v>21904.87305433644</v>
       </c>
       <c r="J5" t="n">
-        <v>21904.87305433645</v>
+        <v>21904.87305433644</v>
       </c>
       <c r="K5" t="n">
-        <v>21904.87305433645</v>
+        <v>21904.87305433644</v>
       </c>
       <c r="L5" t="n">
-        <v>21904.87305433645</v>
+        <v>21904.87305433644</v>
       </c>
       <c r="M5" t="n">
         <v>18482.81739695297</v>
@@ -26508,10 +26508,10 @@
         <v>18482.81739695297</v>
       </c>
       <c r="O5" t="n">
-        <v>17844.24704408502</v>
+        <v>17844.24704408501</v>
       </c>
       <c r="P5" t="n">
-        <v>17844.24704408502</v>
+        <v>17844.24704408501</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140199.9766803214</v>
+        <v>140155.8409016402</v>
       </c>
       <c r="C6" t="n">
-        <v>140199.9766803212</v>
+        <v>140155.8409016404</v>
       </c>
       <c r="D6" t="n">
-        <v>140199.9766803214</v>
+        <v>140155.8409016404</v>
       </c>
       <c r="E6" t="n">
-        <v>24833.12567348882</v>
+        <v>10675.46262545874</v>
       </c>
       <c r="F6" t="n">
-        <v>107594.3509198357</v>
+        <v>93436.68787180545</v>
       </c>
       <c r="G6" t="n">
-        <v>106045.4888975832</v>
+        <v>92022.14400527027</v>
       </c>
       <c r="H6" t="n">
-        <v>108924.1493443893</v>
+        <v>94900.80445207635</v>
       </c>
       <c r="I6" t="n">
-        <v>68454.10157443963</v>
+        <v>57556.23013069019</v>
       </c>
       <c r="J6" t="n">
-        <v>138671.9225506281</v>
+        <v>127774.0511068785</v>
       </c>
       <c r="K6" t="n">
-        <v>138671.9225506281</v>
+        <v>127774.0511068785</v>
       </c>
       <c r="L6" t="n">
-        <v>138671.922550628</v>
+        <v>127774.0511068785</v>
       </c>
       <c r="M6" t="n">
-        <v>132331.1344726923</v>
+        <v>120767.0630870795</v>
       </c>
       <c r="N6" t="n">
-        <v>132331.1344726923</v>
+        <v>120767.0630870795</v>
       </c>
       <c r="O6" t="n">
-        <v>131147.9160549402</v>
+        <v>119459.5288853227</v>
       </c>
       <c r="P6" t="n">
-        <v>131147.9160549404</v>
+        <v>119459.5288853225</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="F3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="G3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="H3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="I3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="J3" t="n">
         <v>82.09593165333735</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="F4" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="H4" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="I4" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="J4" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="K4" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="L4" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="M4" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="N4" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="O4" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="P4" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82.09593165333735</v>
+        <v>82.09593165333733</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.50280185638077</v>
+        <v>10.50280185638081</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.50280185638077</v>
+        <v>10.50280185638081</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>0.3300338960938182</v>
       </c>
       <c r="H11" t="n">
-        <v>3.379959638370817</v>
+        <v>3.379959638370816</v>
       </c>
       <c r="I11" t="n">
         <v>12.72363177915694</v>
@@ -31764,31 +31764,31 @@
         <v>28.01121438859273</v>
       </c>
       <c r="K11" t="n">
-        <v>41.98154921024406</v>
+        <v>41.98154921024405</v>
       </c>
       <c r="L11" t="n">
-        <v>52.08182405782527</v>
+        <v>52.08182405782526</v>
       </c>
       <c r="M11" t="n">
-        <v>57.9510643574837</v>
+        <v>57.95106435748369</v>
       </c>
       <c r="N11" t="n">
-        <v>58.88877316476027</v>
+        <v>58.88877316476026</v>
       </c>
       <c r="O11" t="n">
-        <v>55.60699861047736</v>
+        <v>55.60699861047735</v>
       </c>
       <c r="P11" t="n">
-        <v>47.45928680066121</v>
+        <v>47.4592868006612</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.63994789680134</v>
+        <v>35.63994789680133</v>
       </c>
       <c r="R11" t="n">
         <v>20.73149172550333</v>
       </c>
       <c r="S11" t="n">
-        <v>7.52064740723789</v>
+        <v>7.520647407237889</v>
       </c>
       <c r="T11" t="n">
         <v>1.44472338015069</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1765837020468011</v>
+        <v>0.176583702046801</v>
       </c>
       <c r="H12" t="n">
         <v>1.705426806609895</v>
       </c>
       <c r="I12" t="n">
-        <v>6.079745881874512</v>
+        <v>6.079745881874511</v>
       </c>
       <c r="J12" t="n">
         <v>16.68328739381641</v>
       </c>
       <c r="K12" t="n">
-        <v>28.51439543095209</v>
+        <v>28.51439543095208</v>
       </c>
       <c r="L12" t="n">
-        <v>38.34112355187232</v>
+        <v>38.34112355187231</v>
       </c>
       <c r="M12" t="n">
-        <v>44.74228275106885</v>
+        <v>44.74228275106884</v>
       </c>
       <c r="N12" t="n">
         <v>45.92647784067218</v>
       </c>
       <c r="O12" t="n">
-        <v>42.01375475847728</v>
+        <v>42.01375475847727</v>
       </c>
       <c r="P12" t="n">
         <v>33.71974219172643</v>
@@ -31870,7 +31870,7 @@
         <v>3.279964816527202</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7117562376360094</v>
+        <v>0.7117562376360093</v>
       </c>
       <c r="U12" t="n">
         <v>0.0116173488188685</v>
@@ -31916,13 +31916,13 @@
         <v>1.316226576343672</v>
       </c>
       <c r="I13" t="n">
-        <v>4.452021998512131</v>
+        <v>4.45202199851213</v>
       </c>
       <c r="J13" t="n">
         <v>10.46655836832794</v>
       </c>
       <c r="K13" t="n">
-        <v>17.19977059884674</v>
+        <v>17.19977059884673</v>
       </c>
       <c r="L13" t="n">
         <v>22.00978469276523</v>
@@ -31943,16 +31943,16 @@
         <v>12.39648567965394</v>
       </c>
       <c r="R13" t="n">
-        <v>6.656499638646006</v>
+        <v>6.656499638646005</v>
       </c>
       <c r="S13" t="n">
         <v>2.57996558982701</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6325424242142383</v>
+        <v>0.6325424242142382</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008075009670820076</v>
+        <v>0.008075009670820074</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>0.3300338960938182</v>
       </c>
       <c r="H14" t="n">
-        <v>3.379959638370817</v>
+        <v>3.379959638370816</v>
       </c>
       <c r="I14" t="n">
         <v>12.72363177915694</v>
@@ -32001,31 +32001,31 @@
         <v>28.01121438859273</v>
       </c>
       <c r="K14" t="n">
-        <v>41.98154921024406</v>
+        <v>41.98154921024405</v>
       </c>
       <c r="L14" t="n">
-        <v>52.08182405782527</v>
+        <v>52.08182405782526</v>
       </c>
       <c r="M14" t="n">
-        <v>57.9510643574837</v>
+        <v>57.95106435748369</v>
       </c>
       <c r="N14" t="n">
-        <v>58.88877316476027</v>
+        <v>58.88877316476026</v>
       </c>
       <c r="O14" t="n">
-        <v>55.60699861047736</v>
+        <v>55.60699861047735</v>
       </c>
       <c r="P14" t="n">
-        <v>47.45928680066121</v>
+        <v>47.4592868006612</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.63994789680134</v>
+        <v>35.63994789680133</v>
       </c>
       <c r="R14" t="n">
         <v>20.73149172550333</v>
       </c>
       <c r="S14" t="n">
-        <v>7.52064740723789</v>
+        <v>7.520647407237889</v>
       </c>
       <c r="T14" t="n">
         <v>1.44472338015069</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1765837020468011</v>
+        <v>0.176583702046801</v>
       </c>
       <c r="H15" t="n">
         <v>1.705426806609895</v>
       </c>
       <c r="I15" t="n">
-        <v>6.079745881874512</v>
+        <v>6.079745881874511</v>
       </c>
       <c r="J15" t="n">
         <v>16.68328739381641</v>
       </c>
       <c r="K15" t="n">
-        <v>28.51439543095209</v>
+        <v>28.51439543095208</v>
       </c>
       <c r="L15" t="n">
-        <v>38.34112355187232</v>
+        <v>38.34112355187231</v>
       </c>
       <c r="M15" t="n">
-        <v>44.74228275106885</v>
+        <v>44.74228275106884</v>
       </c>
       <c r="N15" t="n">
         <v>45.92647784067218</v>
       </c>
       <c r="O15" t="n">
-        <v>42.01375475847728</v>
+        <v>42.01375475847727</v>
       </c>
       <c r="P15" t="n">
         <v>33.71974219172643</v>
@@ -32107,7 +32107,7 @@
         <v>3.279964816527202</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7117562376360094</v>
+        <v>0.7117562376360093</v>
       </c>
       <c r="U15" t="n">
         <v>0.0116173488188685</v>
@@ -32153,13 +32153,13 @@
         <v>1.316226576343672</v>
       </c>
       <c r="I16" t="n">
-        <v>4.452021998512131</v>
+        <v>4.45202199851213</v>
       </c>
       <c r="J16" t="n">
         <v>10.46655836832794</v>
       </c>
       <c r="K16" t="n">
-        <v>17.19977059884674</v>
+        <v>17.19977059884673</v>
       </c>
       <c r="L16" t="n">
         <v>22.00978469276523</v>
@@ -32180,16 +32180,16 @@
         <v>12.39648567965394</v>
       </c>
       <c r="R16" t="n">
-        <v>6.656499638646006</v>
+        <v>6.656499638646005</v>
       </c>
       <c r="S16" t="n">
         <v>2.57996558982701</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6325424242142383</v>
+        <v>0.6325424242142382</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008075009670820076</v>
+        <v>0.008075009670820074</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>0.3300338960938182</v>
       </c>
       <c r="H17" t="n">
-        <v>3.379959638370817</v>
+        <v>3.379959638370816</v>
       </c>
       <c r="I17" t="n">
         <v>12.72363177915694</v>
@@ -32238,31 +32238,31 @@
         <v>28.01121438859273</v>
       </c>
       <c r="K17" t="n">
-        <v>41.98154921024406</v>
+        <v>41.98154921024405</v>
       </c>
       <c r="L17" t="n">
-        <v>52.08182405782527</v>
+        <v>52.08182405782526</v>
       </c>
       <c r="M17" t="n">
-        <v>57.9510643574837</v>
+        <v>57.95106435748369</v>
       </c>
       <c r="N17" t="n">
-        <v>58.88877316476027</v>
+        <v>58.88877316476026</v>
       </c>
       <c r="O17" t="n">
-        <v>55.60699861047736</v>
+        <v>55.60699861047735</v>
       </c>
       <c r="P17" t="n">
-        <v>47.45928680066121</v>
+        <v>47.4592868006612</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.63994789680134</v>
+        <v>35.63994789680133</v>
       </c>
       <c r="R17" t="n">
         <v>20.73149172550333</v>
       </c>
       <c r="S17" t="n">
-        <v>7.52064740723789</v>
+        <v>7.520647407237889</v>
       </c>
       <c r="T17" t="n">
         <v>1.44472338015069</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1765837020468011</v>
+        <v>0.176583702046801</v>
       </c>
       <c r="H18" t="n">
         <v>1.705426806609895</v>
       </c>
       <c r="I18" t="n">
-        <v>6.079745881874512</v>
+        <v>6.079745881874511</v>
       </c>
       <c r="J18" t="n">
         <v>16.68328739381641</v>
       </c>
       <c r="K18" t="n">
-        <v>28.51439543095209</v>
+        <v>28.51439543095208</v>
       </c>
       <c r="L18" t="n">
-        <v>38.34112355187232</v>
+        <v>38.34112355187231</v>
       </c>
       <c r="M18" t="n">
-        <v>44.74228275106885</v>
+        <v>44.74228275106884</v>
       </c>
       <c r="N18" t="n">
         <v>45.92647784067218</v>
       </c>
       <c r="O18" t="n">
-        <v>42.01375475847728</v>
+        <v>42.01375475847727</v>
       </c>
       <c r="P18" t="n">
         <v>33.71974219172643</v>
@@ -32344,7 +32344,7 @@
         <v>3.279964816527202</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7117562376360094</v>
+        <v>0.7117562376360093</v>
       </c>
       <c r="U18" t="n">
         <v>0.0116173488188685</v>
@@ -32390,13 +32390,13 @@
         <v>1.316226576343672</v>
       </c>
       <c r="I19" t="n">
-        <v>4.452021998512131</v>
+        <v>4.45202199851213</v>
       </c>
       <c r="J19" t="n">
         <v>10.46655836832794</v>
       </c>
       <c r="K19" t="n">
-        <v>17.19977059884674</v>
+        <v>17.19977059884673</v>
       </c>
       <c r="L19" t="n">
         <v>22.00978469276523</v>
@@ -32417,16 +32417,16 @@
         <v>12.39648567965394</v>
       </c>
       <c r="R19" t="n">
-        <v>6.656499638646006</v>
+        <v>6.656499638646005</v>
       </c>
       <c r="S19" t="n">
         <v>2.57996558982701</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6325424242142383</v>
+        <v>0.6325424242142382</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008075009670820076</v>
+        <v>0.008075009670820074</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>0.3300338960938182</v>
       </c>
       <c r="H20" t="n">
-        <v>3.379959638370817</v>
+        <v>3.379959638370816</v>
       </c>
       <c r="I20" t="n">
         <v>12.72363177915694</v>
@@ -32475,31 +32475,31 @@
         <v>28.01121438859273</v>
       </c>
       <c r="K20" t="n">
-        <v>41.98154921024406</v>
+        <v>41.98154921024405</v>
       </c>
       <c r="L20" t="n">
-        <v>52.08182405782527</v>
+        <v>52.08182405782526</v>
       </c>
       <c r="M20" t="n">
-        <v>57.9510643574837</v>
+        <v>57.95106435748369</v>
       </c>
       <c r="N20" t="n">
-        <v>58.88877316476027</v>
+        <v>58.88877316476026</v>
       </c>
       <c r="O20" t="n">
-        <v>55.60699861047736</v>
+        <v>55.60699861047735</v>
       </c>
       <c r="P20" t="n">
-        <v>47.45928680066121</v>
+        <v>47.4592868006612</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.63994789680134</v>
+        <v>35.63994789680133</v>
       </c>
       <c r="R20" t="n">
         <v>20.73149172550333</v>
       </c>
       <c r="S20" t="n">
-        <v>7.52064740723789</v>
+        <v>7.520647407237889</v>
       </c>
       <c r="T20" t="n">
         <v>1.44472338015069</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1765837020468011</v>
+        <v>0.176583702046801</v>
       </c>
       <c r="H21" t="n">
         <v>1.705426806609895</v>
       </c>
       <c r="I21" t="n">
-        <v>6.079745881874512</v>
+        <v>6.079745881874511</v>
       </c>
       <c r="J21" t="n">
         <v>16.68328739381641</v>
       </c>
       <c r="K21" t="n">
-        <v>28.51439543095209</v>
+        <v>28.51439543095208</v>
       </c>
       <c r="L21" t="n">
-        <v>38.34112355187232</v>
+        <v>38.34112355187231</v>
       </c>
       <c r="M21" t="n">
-        <v>44.74228275106885</v>
+        <v>44.74228275106884</v>
       </c>
       <c r="N21" t="n">
         <v>45.92647784067218</v>
       </c>
       <c r="O21" t="n">
-        <v>42.01375475847728</v>
+        <v>42.01375475847727</v>
       </c>
       <c r="P21" t="n">
         <v>33.71974219172643</v>
@@ -32581,7 +32581,7 @@
         <v>3.279964816527202</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7117562376360094</v>
+        <v>0.7117562376360093</v>
       </c>
       <c r="U21" t="n">
         <v>0.0116173488188685</v>
@@ -32627,13 +32627,13 @@
         <v>1.316226576343672</v>
       </c>
       <c r="I22" t="n">
-        <v>4.452021998512131</v>
+        <v>4.45202199851213</v>
       </c>
       <c r="J22" t="n">
         <v>10.46655836832794</v>
       </c>
       <c r="K22" t="n">
-        <v>17.19977059884674</v>
+        <v>17.19977059884673</v>
       </c>
       <c r="L22" t="n">
         <v>22.00978469276523</v>
@@ -32654,16 +32654,16 @@
         <v>12.39648567965394</v>
       </c>
       <c r="R22" t="n">
-        <v>6.656499638646006</v>
+        <v>6.656499638646005</v>
       </c>
       <c r="S22" t="n">
         <v>2.57996558982701</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6325424242142383</v>
+        <v>0.6325424242142382</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008075009670820076</v>
+        <v>0.008075009670820074</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>0.3300338960938182</v>
       </c>
       <c r="H23" t="n">
-        <v>3.379959638370817</v>
+        <v>3.379959638370816</v>
       </c>
       <c r="I23" t="n">
         <v>12.72363177915694</v>
@@ -32712,31 +32712,31 @@
         <v>28.01121438859273</v>
       </c>
       <c r="K23" t="n">
-        <v>41.98154921024406</v>
+        <v>41.98154921024405</v>
       </c>
       <c r="L23" t="n">
-        <v>52.08182405782527</v>
+        <v>52.08182405782526</v>
       </c>
       <c r="M23" t="n">
-        <v>57.9510643574837</v>
+        <v>57.95106435748369</v>
       </c>
       <c r="N23" t="n">
-        <v>58.88877316476027</v>
+        <v>58.88877316476026</v>
       </c>
       <c r="O23" t="n">
-        <v>55.60699861047736</v>
+        <v>55.60699861047735</v>
       </c>
       <c r="P23" t="n">
-        <v>47.45928680066121</v>
+        <v>47.4592868006612</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.63994789680134</v>
+        <v>35.63994789680133</v>
       </c>
       <c r="R23" t="n">
         <v>20.73149172550333</v>
       </c>
       <c r="S23" t="n">
-        <v>7.52064740723789</v>
+        <v>7.520647407237889</v>
       </c>
       <c r="T23" t="n">
         <v>1.44472338015069</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1765837020468011</v>
+        <v>0.176583702046801</v>
       </c>
       <c r="H24" t="n">
         <v>1.705426806609895</v>
       </c>
       <c r="I24" t="n">
-        <v>6.079745881874512</v>
+        <v>6.079745881874511</v>
       </c>
       <c r="J24" t="n">
         <v>16.68328739381641</v>
       </c>
       <c r="K24" t="n">
-        <v>28.51439543095209</v>
+        <v>28.51439543095208</v>
       </c>
       <c r="L24" t="n">
-        <v>38.34112355187232</v>
+        <v>38.34112355187231</v>
       </c>
       <c r="M24" t="n">
-        <v>44.74228275106885</v>
+        <v>44.74228275106884</v>
       </c>
       <c r="N24" t="n">
         <v>45.92647784067218</v>
       </c>
       <c r="O24" t="n">
-        <v>42.01375475847728</v>
+        <v>42.01375475847727</v>
       </c>
       <c r="P24" t="n">
         <v>33.71974219172643</v>
@@ -32818,7 +32818,7 @@
         <v>3.279964816527202</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7117562376360094</v>
+        <v>0.7117562376360093</v>
       </c>
       <c r="U24" t="n">
         <v>0.0116173488188685</v>
@@ -32864,13 +32864,13 @@
         <v>1.316226576343672</v>
       </c>
       <c r="I25" t="n">
-        <v>4.452021998512131</v>
+        <v>4.45202199851213</v>
       </c>
       <c r="J25" t="n">
         <v>10.46655836832794</v>
       </c>
       <c r="K25" t="n">
-        <v>17.19977059884674</v>
+        <v>17.19977059884673</v>
       </c>
       <c r="L25" t="n">
         <v>22.00978469276523</v>
@@ -32891,16 +32891,16 @@
         <v>12.39648567965394</v>
       </c>
       <c r="R25" t="n">
-        <v>6.656499638646006</v>
+        <v>6.656499638646005</v>
       </c>
       <c r="S25" t="n">
         <v>2.57996558982701</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6325424242142383</v>
+        <v>0.6325424242142382</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008075009670820076</v>
+        <v>0.008075009670820074</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.00971681476449</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.3604681325079</v>
       </c>
       <c r="M11" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="P11" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>25.64924868225653</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15.93669606755856</v>
       </c>
       <c r="K12" t="n">
-        <v>54.00971681476449</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="N12" t="n">
-        <v>56.2838101543335</v>
+        <v>38.07302074720588</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="P12" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,13 +35573,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>49.59980995308139</v>
+        <v>49.59980995308136</v>
       </c>
       <c r="M13" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="N13" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="O13" t="n">
         <v>45.51016964102475</v>
@@ -35649,25 +35649,25 @@
         <v>16.06192503398021</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="L14" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="M14" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="N14" t="n">
-        <v>12.29854309852773</v>
+        <v>37.94779178078424</v>
       </c>
       <c r="O14" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.64924868225653</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>15.93669606755856</v>
       </c>
       <c r="K15" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="L15" t="n">
-        <v>56.2838101543335</v>
+        <v>38.07302074720588</v>
       </c>
       <c r="M15" t="n">
-        <v>38.07302074720594</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>56.2838101543335</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>49.59980995308137</v>
+        <v>49.59980995308136</v>
       </c>
       <c r="M16" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="N16" t="n">
-        <v>56.2838101543335</v>
+        <v>56.28381015433349</v>
       </c>
       <c r="O16" t="n">
         <v>45.51016964102475</v>
@@ -35886,25 +35886,25 @@
         <v>16.06192503398021</v>
       </c>
       <c r="K17" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>22.3769893243477</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O17" t="n">
-        <v>66.78661201071431</v>
+        <v>48.02623800660421</v>
       </c>
       <c r="P17" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.64924868225653</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.93669606755856</v>
       </c>
       <c r="K18" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>64.08816304058445</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="M18" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>48.15146697302585</v>
       </c>
       <c r="P18" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,13 +36047,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>49.59980995308137</v>
+        <v>49.59980995308136</v>
       </c>
       <c r="M19" t="n">
-        <v>62.79010892083232</v>
+        <v>62.79010892083231</v>
       </c>
       <c r="N19" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O19" t="n">
         <v>45.51016964102475</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>16.06192503398021</v>
       </c>
       <c r="K20" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>64.08816304058445</v>
+        <v>22.37698932434771</v>
       </c>
       <c r="N20" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O20" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>25.64924868225653</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>15.93669606755856</v>
       </c>
       <c r="K21" t="n">
-        <v>48.1514669730259</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>66.78661201071431</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O21" t="n">
-        <v>66.78661201071431</v>
+        <v>48.15146697302585</v>
       </c>
       <c r="P21" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>49.59980995308137</v>
+        <v>49.59980995308136</v>
       </c>
       <c r="M22" t="n">
-        <v>62.79010892083232</v>
+        <v>62.79010892083231</v>
       </c>
       <c r="N22" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O22" t="n">
         <v>45.51016964102475</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.06192503398021</v>
+        <v>16.06192503398045</v>
       </c>
       <c r="K23" t="n">
-        <v>146.0371107364287</v>
+        <v>146.0371107364282</v>
       </c>
       <c r="L23" t="n">
         <v>233.9766236382885</v>
@@ -36439,25 +36439,25 @@
         <v>15.93669606755856</v>
       </c>
       <c r="K24" t="n">
-        <v>155.1381934691717</v>
+        <v>68.47264961912168</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>270.6270890754573</v>
       </c>
       <c r="M24" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="N24" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="O24" t="n">
         <v>293.2798295907623</v>
       </c>
       <c r="P24" t="n">
-        <v>91.32527690728992</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.63626831811749</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,13 +36521,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.59980995308137</v>
+        <v>49.59980995308136</v>
       </c>
       <c r="M25" t="n">
-        <v>62.79010892083232</v>
+        <v>62.79010892083231</v>
       </c>
       <c r="N25" t="n">
-        <v>66.78661201071431</v>
+        <v>66.78661201071429</v>
       </c>
       <c r="O25" t="n">
         <v>45.51016964102475</v>
@@ -36603,7 +36603,7 @@
         <v>233.9766236382885</v>
       </c>
       <c r="M26" t="n">
-        <v>277.1183646230439</v>
+        <v>277.1183646230435</v>
       </c>
       <c r="N26" t="n">
         <v>266.8226339801535</v>
@@ -36612,7 +36612,7 @@
         <v>206.308968451536</v>
       </c>
       <c r="P26" t="n">
-        <v>138.0249992168743</v>
+        <v>138.0249992168745</v>
       </c>
       <c r="Q26" t="n">
         <v>25.64924868225653</v>
@@ -36679,16 +36679,16 @@
         <v>155.1381934691717</v>
       </c>
       <c r="L27" t="n">
-        <v>270.6270890754573</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="N27" t="n">
-        <v>319.2479873282095</v>
+        <v>296.5952468129045</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>293.2798295907623</v>
       </c>
       <c r="P27" t="n">
         <v>218.2081034173333</v>
@@ -36837,7 +36837,7 @@
         <v>146.0371107364282</v>
       </c>
       <c r="L29" t="n">
-        <v>233.9766236382889</v>
+        <v>233.9766236382885</v>
       </c>
       <c r="M29" t="n">
         <v>277.1183646230435</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>136.8283313448043</v>
+        <v>155.1381934691717</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>270.6270890754573</v>
       </c>
       <c r="M30" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="N30" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="O30" t="n">
-        <v>293.2798295907623</v>
+        <v>222.5509818082711</v>
       </c>
       <c r="P30" t="n">
-        <v>218.2081034173333</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>266.8226339801535</v>
       </c>
       <c r="O32" t="n">
-        <v>206.308968451536</v>
+        <v>206.3089684515361</v>
       </c>
       <c r="P32" t="n">
         <v>138.0249992168743</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.93669606755856</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>155.1381934691717</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>270.6270890754573</v>
+        <v>44.19206302668682</v>
       </c>
       <c r="M33" t="n">
-        <v>330.8418050048305</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="N33" t="n">
-        <v>151.5399928366631</v>
+        <v>330.8418050048304</v>
       </c>
       <c r="O33" t="n">
         <v>293.2798295907623</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>218.2081034173333</v>
       </c>
       <c r="Q33" t="n">
         <v>92.63626831811749</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>16.06192503398021</v>
       </c>
       <c r="K35" t="n">
-        <v>79.82325748206476</v>
+        <v>146.0371107364282</v>
       </c>
       <c r="L35" t="n">
         <v>233.9766236382885</v>
       </c>
       <c r="M35" t="n">
-        <v>274.557994850497</v>
+        <v>260.5661857968146</v>
       </c>
       <c r="N35" t="n">
         <v>266.8226339801535</v>
       </c>
       <c r="O35" t="n">
-        <v>206.308968451536</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>138.0249992168743</v>
       </c>
       <c r="Q35" t="n">
         <v>25.64924868225653</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>15.93669606755856</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>155.1381934691717</v>
       </c>
       <c r="L36" t="n">
         <v>270.6270890754573</v>
       </c>
       <c r="M36" t="n">
-        <v>231.109271423391</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="N36" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.32075877161455</v>
       </c>
       <c r="P36" t="n">
-        <v>218.2081034173333</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>92.63626831811749</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>16.06192503398021</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0371107364282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>13.67584613307047</v>
+        <v>159.7129568694985</v>
       </c>
       <c r="M38" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="N38" t="n">
         <v>266.8226339801535</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>45.25663911597198</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>274.557994850497</v>
+        <v>227.1783656483513</v>
       </c>
       <c r="N39" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="O39" t="n">
-        <v>274.557994850497</v>
+        <v>274.5579948504969</v>
       </c>
       <c r="P39" t="n">
         <v>218.2081034173333</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>92.63626831811749</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>146.0371107364282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>233.9766236382885</v>
       </c>
       <c r="M41" t="n">
-        <v>249.4144301746425</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="N41" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="O41" t="n">
-        <v>206.308968451536</v>
+        <v>95.71658121064785</v>
       </c>
       <c r="P41" t="n">
-        <v>138.0249992168743</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>25.64924868225653</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.93669606755856</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>155.1381934691717</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>264.0551929941162</v>
+        <v>253.3862963074852</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="N42" t="n">
-        <v>35.52222802942051</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="O42" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="P42" t="n">
-        <v>218.2081034173333</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>92.63626831811749</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>16.06192503398021</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0371107364282</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>233.9766236382885</v>
       </c>
       <c r="M44" t="n">
-        <v>264.0551929941162</v>
+        <v>187.1241659550386</v>
       </c>
       <c r="N44" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="O44" t="n">
-        <v>191.6682056320623</v>
+        <v>206.308968451536</v>
       </c>
       <c r="P44" t="n">
         <v>138.0249992168743</v>
       </c>
       <c r="Q44" t="n">
-        <v>25.64924868225653</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>155.1381934691717</v>
       </c>
       <c r="L45" t="n">
-        <v>264.0551929941162</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>264.0551929941161</v>
       </c>
       <c r="N45" t="n">
-        <v>264.0551929941162</v>
+        <v>35.52222802942022</v>
       </c>
       <c r="O45" t="n">
-        <v>253.7303314467538</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>218.2081034173333</v>
       </c>
       <c r="Q45" t="n">
         <v>92.63626831811749</v>
